--- a/pkg/pchip/pchip_test.xlsx
+++ b/pkg/pchip/pchip_test.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="true" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="input" sheetId="2" r:id="rId1"/>
     <sheet name="Matlab" sheetId="1" r:id="rId2"/>
     <sheet name="golang" sheetId="3" r:id="rId3"/>
+    <sheet name="golang2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -794,6 +795,2550 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9B9C-49F2-B403-084524A30EA8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="107270560"/>
+        <c:axId val="107273888"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="107270560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="107273888"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="107273888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="107270560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>b</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>golang2!$A$1:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>101</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>golang2!$C$1:$C$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>-2.6817748211600918E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.3665596646933272E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.9750452909062974E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4.0497860810356244E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.240739005173032E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.30141961881401946</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.3821217228741527</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16.098568438562108</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.0871925721640672</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.6215780102130635E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-6.1481815935871376E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.029234548054623E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.55761734329001877</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.3284930711328862</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>34.755123863100209</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-3.1227097528570189</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.18968379079164854</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.1182506246593085</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.12810904089184616</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.25285646101166609</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.30854177039226394</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.48986263710907879</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.3284731788268154</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8.0110563014897807</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.59608685448858789</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9.3657379511686067E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.27337309579894631</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.2675465729823634</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.22185603361124948</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.1661370871673489</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>12.780792080696548</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.46317868070195684</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>9.2267246976785663E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.27259569716951082</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.21949747578879045</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.62355779542663448</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.4371595468747387</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>30.765210339990734</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-2.8101741524737807</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.23333264858327354</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-0.26097414282568454</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.25119970458014362</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.39652164023569542</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-4.0763889420895634</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>203.70704778218879</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4.9470486584748956</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.4687595459465255</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-0.19813287233047527</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.24916452568310904</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.14792750349893644</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-1.0206545998315188</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>12.517998069083513</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>7.0305378918565387</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.9755627924610899</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-0.27023145196203596</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.26612559824573334</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>8.4857551365438988E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.6481068018069783E-3</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>4.7113788281290754</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>11.836738920518329</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-0.14409088933302372</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-0.31988864353620561</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.29525546710378731</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>5.7484554736361118E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.40626097787290194</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2.5280966966307474</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>30.557218732331791</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-2.7143616879500625</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-0.14890177557358195</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.30870547190126796</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4.2395262269096658E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.13915329815446711</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-3.2811827737430286</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>88.825423281778455</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>5.1819377683545405</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.97306183078184472</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.37118909194017058</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>8.9077817174989509E-3</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-2.1098670760775363E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-0.83105359266012124</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>11.803247923291639</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>7.206429651952134</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.52555465205029805</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.33306695189447943</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-3.6211648799325577E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-4.3141931280601016E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>7.2600160516219855E-2</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-6.8770237095523032E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3DF2-4E13-9342-B6DD203A5CE4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="107270560"/>
+        <c:axId val="107273888"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="107270560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="107273888"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="107273888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="107270560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>c</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>golang2!$A$1:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>101</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>golang2!$D$1:$D$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>2.2823575929131659</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2800033375395778</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2783890101951401</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2726978814524297</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2748455503375467</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2741347532484708</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.1168501906836314</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.496983283910414</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.2641014644376165</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2.2593067216904821</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2.2568597729048969</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-2.2571879739599652</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.9878989687284463</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.8605259525416589</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.1960767703413584</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.9855694249660987</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.2553265588112352</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.2398828765179282</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.2683723894642327</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.3130866629819997</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.4833967990979051</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-2.1540030679122886</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-2.2888322902219493</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-2.2568695238295273</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-2.2771910556415844</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-2.331574729395518</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-2.230462927547423</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.3946363699706468</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.2942969667036679</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.2553287940022004</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.2628376650790396</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.3096491273718378</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.0382228200898198</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-2.8214445639120442</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-2.2308896339812372</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-2.2268384245764206</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-2.2372166042544657</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-2.271180752707012</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-2.0538635706798454</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-3.6898445477269322</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.9023482730536532</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.2080427934178481</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.2499926262188996</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.3226449216359026</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.2970176004145153</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2.6365905520305022</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-2.0939551015871962</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-2.258343274064667</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-2.2844285994396154</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-2.3505089094260305</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-2.3332086992587073</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-2.262825586253808</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.3645401951785474</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2.2679271924843145</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2.284054872900791</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2.340377964170083</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2.3025299010487532</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2.0251395917015942</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-2.8232210732266592</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-2.2024912347729124</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-2.2591098110673649</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-2.3137795274802495</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-2.2718726568633318</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-2.1095125833749364</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-3.4004055462981149</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.8885140739222248</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2.2278414941771283</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2.3042223565350195</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2.2922250694352604</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2.2737515304492519</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2.6131767524853569</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-2.069062384725199</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-2.2809617639863773</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-2.3329513939694859</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-2.3108149022023854</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-2.3010517577402254</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-2.2687178343546619</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E104-4800-9CAF-272F039FDC25}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="107270560"/>
+        <c:axId val="107273888"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="107270560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="107273888"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="107273888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="107270560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>d</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>golang2!$A$1:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>101</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>golang2!$E$1:$E$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>101</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7025-4FAB-B8FC-A36E65A63E8E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3660,7 +6205,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4037,6 +6581,36 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>-2.4992323333769162E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.4898851951420505E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-8.0972410665353114E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.7245703167151184</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-7.2331093691849606</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23.340810175250187</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.2411464252150315</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.8148532314621363E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-8.8070366101981989E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.5359468508894231E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.290877360484818</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>4.8041707111843506</c:v>
@@ -4517,7 +7091,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4894,6 +7467,36 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>9.9750452909062974E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4.0497860810356244E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.240739005173032E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.30141961881401946</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.3821217228741527</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16.098568438562108</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.0871925721640672</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.6215780102130635E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-6.1481815935871376E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.029234548054623E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.55761734329001877</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>2.3284930711328862</c:v>
@@ -5374,7 +7977,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5751,6 +8353,36 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2.2783890101951401</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2726978814524297</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2748455503375467</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2741347532484708</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.1168501906836314</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.496983283910414</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.2641014644376165</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2.2593067216904821</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2.2568597729048969</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-2.2571879739599652</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>-1.9878989687284463</c:v>
@@ -6231,7 +8863,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7077,7 +9708,975 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>a</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>golang2!$A$1:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>101</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>golang2!$B$1:$B$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>-5.2717473021766357E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8393269359681876E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.4992323333769162E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.4898851951420505E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-8.0972410665353114E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.7245703167151184</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-7.2331093691849606</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23.340810175250187</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.2411464252150315</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.8148532314621363E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-8.8070366101981989E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.5359468508894231E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.290877360484818</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.8041707111843506</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-76.075221526746347</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.4592088726894605</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.2204560193211709</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-1.2193472712435576</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.22028936963582377</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.41918964943918302</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.39800640745936766</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.0507462675356127</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-20.908607848335823</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7.8878891654796668</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.67354799751892691</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.19905585232104916</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.43853808417768336</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.31750631622496533</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.52747428343717739</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9.3298586375041737</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-16.318737008880742</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.53232661350123456</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.20954926332695428</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.41516845780001671</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.25477098712602331</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-1.4423855137047321</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-5.1589515943870481</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>63.106269234626218</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-3.1673384762744585</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.3590815034841065</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-0.39772474643214212</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.32357020898213423</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.96581592748477751</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-7.0087629490915297</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1410.9447953490037</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-3.7029628934405814</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-1.6738584059008697</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.35670559884174047</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-0.25449551626526545</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-0.27687930675666578</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.1154985249154064</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-34.352474792971968</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.424275156865634</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.2022869185075862</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-0.44423601080399377</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.29486503986627061</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.16535489140014914</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.12772693836727811</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>10.670363712253765</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-14.477261092911016</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>4.99722249785024E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.50120755981203957</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-0.3583205082299965</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-0.15836350151286002</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-1.0910767217939206</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-5.2807434075062218</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>62.444872810655177</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-2.9851865439828078</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-0.30951348959680686</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.37958039712568059</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.13945182265888101</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.47884349194642534</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-6.0581264534973656</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>447.01270804825708</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-4.0084367975390087</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-0.87225141236158688</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-0.43537445906424765</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-3.4850651541103742E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.7121258669551034E-5</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.8348707991111088</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-31.937386936812182</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>6.7088816805479832</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.42966303296467517</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.42548498115027472</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-1.6287789830530062E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-4.895336649995715E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.16841332955411195</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>3.7126411825261179E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-01F7-46D1-A326-4DBC5D062736}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="107270560"/>
+        <c:axId val="107273888"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="107270560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="107273888"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="107273888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="107270560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7397,6 +10996,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -7913,7 +11552,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8429,7 +12068,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8945,7 +12584,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9461,7 +13100,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9977,7 +13616,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10493,7 +14132,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11009,7 +14648,2071 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11657,6 +17360,139 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Диаграмма 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -14320,8 +20156,1744 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E101"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>-5.2717473021766357E-6</v>
+      </c>
+      <c r="C1">
+        <v>-2.6817748211600918E-3</v>
+      </c>
+      <c r="D1">
+        <v>2.2823575929131659</v>
+      </c>
+      <c r="E1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>3.8393269359681876E-3</v>
+      </c>
+      <c r="C2">
+        <v>-4.3665596646933272E-3</v>
+      </c>
+      <c r="D2">
+        <v>2.2800033375395778</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>-2.4992323333769162E-2</v>
+      </c>
+      <c r="C3">
+        <v>9.9750452909062974E-3</v>
+      </c>
+      <c r="D3">
+        <v>2.2783890101951401</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>6.4898851951420505E-2</v>
+      </c>
+      <c r="C4">
+        <v>-4.0497860810356244E-2</v>
+      </c>
+      <c r="D4">
+        <v>2.2726978814524297</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>-8.0972410665353114E-2</v>
+      </c>
+      <c r="C5">
+        <v>5.240739005173032E-2</v>
+      </c>
+      <c r="D5">
+        <v>2.2748455503375467</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>-0.7245703167151184</v>
+      </c>
+      <c r="C6">
+        <v>0.30141961881401946</v>
+      </c>
+      <c r="D6">
+        <v>2.2741347532484708</v>
+      </c>
+      <c r="E6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>-7.2331093691849606</v>
+      </c>
+      <c r="C7">
+        <v>3.3821217228741527</v>
+      </c>
+      <c r="D7">
+        <v>2.1168501906836314</v>
+      </c>
+      <c r="E7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>23.340810175250187</v>
+      </c>
+      <c r="C8">
+        <v>16.098568438562108</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>-1.2411464252150315</v>
+      </c>
+      <c r="C9">
+        <v>-1.0871925721640672</v>
+      </c>
+      <c r="D9">
+        <v>-2.496983283910414</v>
+      </c>
+      <c r="E9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>7.8148532314621363E-2</v>
+      </c>
+      <c r="C10">
+        <v>4.6215780102130635E-2</v>
+      </c>
+      <c r="D10">
+        <v>-2.2641014644376165</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>-8.8070366101981989E-2</v>
+      </c>
+      <c r="C11">
+        <v>-6.1481815935871376E-2</v>
+      </c>
+      <c r="D11">
+        <v>-2.2593067216904821</v>
+      </c>
+      <c r="E11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>7.5359468508894231E-2</v>
+      </c>
+      <c r="C12">
+        <v>5.029234548054623E-2</v>
+      </c>
+      <c r="D12">
+        <v>-2.2568597729048969</v>
+      </c>
+      <c r="E12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>1.290877360484818</v>
+      </c>
+      <c r="C13">
+        <v>0.55761734329001877</v>
+      </c>
+      <c r="D13">
+        <v>-2.2571879739599652</v>
+      </c>
+      <c r="E13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>4.8041707111843506</v>
+      </c>
+      <c r="C14">
+        <v>2.3284930711328862</v>
+      </c>
+      <c r="D14">
+        <v>-1.9878989687284463</v>
+      </c>
+      <c r="E14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>-76.075221526746347</v>
+      </c>
+      <c r="C15">
+        <v>34.755123863100209</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>3.4592088726894605</v>
+      </c>
+      <c r="C16">
+        <v>-3.1227097528570189</v>
+      </c>
+      <c r="D16">
+        <v>2.8605259525416589</v>
+      </c>
+      <c r="E16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>-0.2204560193211709</v>
+      </c>
+      <c r="C17">
+        <v>0.18968379079164854</v>
+      </c>
+      <c r="D17">
+        <v>2.1960767703413584</v>
+      </c>
+      <c r="E17">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>-7.2059072899704202E-2</v>
+      </c>
+      <c r="C18">
+        <v>2.4915506049244113E-2</v>
+      </c>
+      <c r="D18">
+        <v>2.233493210062266</v>
+      </c>
+      <c r="E18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>0.16331961066324738</v>
+      </c>
+      <c r="C19">
+        <v>-0.11307438485693999</v>
+      </c>
+      <c r="D19">
+        <v>2.2123730291992914</v>
+      </c>
+      <c r="E19">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>-1.7887270504160573</v>
+      </c>
+      <c r="C20">
+        <v>0.8396661252239257</v>
+      </c>
+      <c r="D20">
+        <v>2.2110479259078706</v>
+      </c>
+      <c r="E20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>-3.4355166031892654</v>
+      </c>
+      <c r="C21">
+        <v>1.6935925503384675</v>
+      </c>
+      <c r="D21">
+        <v>1.8834481948155424</v>
+      </c>
+      <c r="E21">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>5808.3519051976955</v>
+      </c>
+      <c r="C22">
+        <v>612.0814478259781</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>-7.5966665764868893</v>
+      </c>
+      <c r="C23">
+        <v>-8.2284428661167777</v>
+      </c>
+      <c r="D23">
+        <v>-3.9957534356261575</v>
+      </c>
+      <c r="E23">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>1.0062694022045275</v>
+      </c>
+      <c r="C24">
+        <v>0.95569375733922668</v>
+      </c>
+      <c r="D24">
+        <v>-1.9679118368039332</v>
+      </c>
+      <c r="E24">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>0.18147363407172082</v>
+      </c>
+      <c r="C25">
+        <v>0.12101961628229058</v>
+      </c>
+      <c r="D25">
+        <v>-2.2120432475375278</v>
+      </c>
+      <c r="E25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>-0.35678941116162849</v>
+      </c>
+      <c r="C26">
+        <v>-0.20332054662814164</v>
+      </c>
+      <c r="D26">
+        <v>-2.2110944626049909</v>
+      </c>
+      <c r="E26">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>0.72225265546821393</v>
+      </c>
+      <c r="C27">
+        <v>0.44605198201682528</v>
+      </c>
+      <c r="D27">
+        <v>-2.2482819052069161</v>
+      </c>
+      <c r="E27">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <v>-3.6991356999364737</v>
+      </c>
+      <c r="C28">
+        <v>-1.8790797437143636</v>
+      </c>
+      <c r="D28">
+        <v>-2.2276566123287398</v>
+      </c>
+      <c r="E28">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <v>79.806550192725155</v>
+      </c>
+      <c r="C29">
+        <v>24.444524815950807</v>
+      </c>
+      <c r="D29">
+        <v>-2.876267196859291</v>
+      </c>
+      <c r="E29">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>30</v>
+      </c>
+      <c r="B30">
+        <v>-4.8350057108805071</v>
+      </c>
+      <c r="C30">
+        <v>5.8586290645118826</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <v>-1.2193472712435576</v>
+      </c>
+      <c r="C31">
+        <v>1.1182506246593085</v>
+      </c>
+      <c r="D31">
+        <v>1.9855694249660987</v>
+      </c>
+      <c r="E31">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>32</v>
+      </c>
+      <c r="B32">
+        <v>-0.22028936963582377</v>
+      </c>
+      <c r="C32">
+        <v>0.12810904089184616</v>
+      </c>
+      <c r="D32">
+        <v>2.2553265588112352</v>
+      </c>
+      <c r="E32">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <v>0.41918964943918302</v>
+      </c>
+      <c r="C33">
+        <v>-0.25285646101166609</v>
+      </c>
+      <c r="D33">
+        <v>2.2398828765179282</v>
+      </c>
+      <c r="E33">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>34</v>
+      </c>
+      <c r="B34">
+        <v>-0.39800640745936766</v>
+      </c>
+      <c r="C34">
+        <v>0.30854177039226394</v>
+      </c>
+      <c r="D34">
+        <v>2.2683723894642327</v>
+      </c>
+      <c r="E34">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>35</v>
+      </c>
+      <c r="B35">
+        <v>1.0507462675356127</v>
+      </c>
+      <c r="C35">
+        <v>-0.48986263710907879</v>
+      </c>
+      <c r="D35">
+        <v>2.3130866629819997</v>
+      </c>
+      <c r="E35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>36</v>
+      </c>
+      <c r="B36">
+        <v>-20.908607848335823</v>
+      </c>
+      <c r="C36">
+        <v>8.3284731788268154</v>
+      </c>
+      <c r="D36">
+        <v>2.4833967990979051</v>
+      </c>
+      <c r="E36">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>37</v>
+      </c>
+      <c r="B37">
+        <v>7.8878891654796668</v>
+      </c>
+      <c r="C37">
+        <v>8.0110563014897807</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>38</v>
+      </c>
+      <c r="B38">
+        <v>0.67354799751892691</v>
+      </c>
+      <c r="C38">
+        <v>0.59608685448858789</v>
+      </c>
+      <c r="D38">
+        <v>-2.1540030679122886</v>
+      </c>
+      <c r="E38">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>39</v>
+      </c>
+      <c r="B39">
+        <v>0.19905585232104916</v>
+      </c>
+      <c r="C39">
+        <v>9.3657379511686067E-2</v>
+      </c>
+      <c r="D39">
+        <v>-2.2888322902219493</v>
+      </c>
+      <c r="E39">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>40</v>
+      </c>
+      <c r="B40">
+        <v>-0.43853808417768336</v>
+      </c>
+      <c r="C40">
+        <v>-0.27337309579894631</v>
+      </c>
+      <c r="D40">
+        <v>-2.2568695238295273</v>
+      </c>
+      <c r="E40">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>41</v>
+      </c>
+      <c r="B41">
+        <v>0.31750631622496533</v>
+      </c>
+      <c r="C41">
+        <v>0.2675465729823634</v>
+      </c>
+      <c r="D41">
+        <v>-2.2771910556415844</v>
+      </c>
+      <c r="E41">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>42</v>
+      </c>
+      <c r="B42">
+        <v>0.52747428343717739</v>
+      </c>
+      <c r="C42">
+        <v>0.22185603361124948</v>
+      </c>
+      <c r="D42">
+        <v>-2.331574729395518</v>
+      </c>
+      <c r="E42">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>43</v>
+      </c>
+      <c r="B43">
+        <v>9.3298586375041737</v>
+      </c>
+      <c r="C43">
+        <v>4.1661370871673489</v>
+      </c>
+      <c r="D43">
+        <v>-2.230462927547423</v>
+      </c>
+      <c r="E43">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>44</v>
+      </c>
+      <c r="B44">
+        <v>-16.318737008880742</v>
+      </c>
+      <c r="C44">
+        <v>12.780792080696548</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>45</v>
+      </c>
+      <c r="B45">
+        <v>0.53232661350123456</v>
+      </c>
+      <c r="C45">
+        <v>-0.46317868070195684</v>
+      </c>
+      <c r="D45">
+        <v>2.3946363699706468</v>
+      </c>
+      <c r="E45">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>46</v>
+      </c>
+      <c r="B46">
+        <v>-0.20954926332695428</v>
+      </c>
+      <c r="C46">
+        <v>9.2267246976785663E-2</v>
+      </c>
+      <c r="D46">
+        <v>2.2942969667036679</v>
+      </c>
+      <c r="E46">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>47</v>
+      </c>
+      <c r="B47">
+        <v>0.41516845780001671</v>
+      </c>
+      <c r="C47">
+        <v>-0.27259569716951082</v>
+      </c>
+      <c r="D47">
+        <v>2.2553287940022004</v>
+      </c>
+      <c r="E47">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>48</v>
+      </c>
+      <c r="B48">
+        <v>-0.25477098712602331</v>
+      </c>
+      <c r="C48">
+        <v>0.21949747578879045</v>
+      </c>
+      <c r="D48">
+        <v>2.2628376650790396</v>
+      </c>
+      <c r="E48">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>49</v>
+      </c>
+      <c r="B49">
+        <v>-1.4423855137047321</v>
+      </c>
+      <c r="C49">
+        <v>0.62355779542663448</v>
+      </c>
+      <c r="D49">
+        <v>2.3096491273718378</v>
+      </c>
+      <c r="E49">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>50</v>
+      </c>
+      <c r="B50">
+        <v>-5.1589515943870481</v>
+      </c>
+      <c r="C50">
+        <v>2.4371595468747387</v>
+      </c>
+      <c r="D50">
+        <v>2.0382228200898198</v>
+      </c>
+      <c r="E50">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>51</v>
+      </c>
+      <c r="B51">
+        <v>63.106269234626218</v>
+      </c>
+      <c r="C51">
+        <v>30.765210339990734</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>52</v>
+      </c>
+      <c r="B52">
+        <v>-3.1673384762744585</v>
+      </c>
+      <c r="C52">
+        <v>-2.8101741524737807</v>
+      </c>
+      <c r="D52">
+        <v>-2.8214445639120442</v>
+      </c>
+      <c r="E52">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>53</v>
+      </c>
+      <c r="B53">
+        <v>0.3590815034841065</v>
+      </c>
+      <c r="C53">
+        <v>0.23333264858327354</v>
+      </c>
+      <c r="D53">
+        <v>-2.2308896339812372</v>
+      </c>
+      <c r="E53">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>54</v>
+      </c>
+      <c r="B54">
+        <v>-0.39772474643214212</v>
+      </c>
+      <c r="C54">
+        <v>-0.26097414282568454</v>
+      </c>
+      <c r="D54">
+        <v>-2.2268384245764206</v>
+      </c>
+      <c r="E54">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>55</v>
+      </c>
+      <c r="B55">
+        <v>0.32357020898213423</v>
+      </c>
+      <c r="C55">
+        <v>0.25119970458014362</v>
+      </c>
+      <c r="D55">
+        <v>-2.2372166042544657</v>
+      </c>
+      <c r="E55">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>56</v>
+      </c>
+      <c r="B56">
+        <v>0.96581592748477751</v>
+      </c>
+      <c r="C56">
+        <v>0.39652164023569542</v>
+      </c>
+      <c r="D56">
+        <v>-2.271180752707012</v>
+      </c>
+      <c r="E56">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>57</v>
+      </c>
+      <c r="B57">
+        <v>-7.0087629490915297</v>
+      </c>
+      <c r="C57">
+        <v>-4.0763889420895634</v>
+      </c>
+      <c r="D57">
+        <v>-2.0538635706798454</v>
+      </c>
+      <c r="E57">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>58</v>
+      </c>
+      <c r="B58">
+        <v>1410.9447953490037</v>
+      </c>
+      <c r="C58">
+        <v>203.70704778218879</v>
+      </c>
+      <c r="D58">
+        <v>-3.6898445477269322</v>
+      </c>
+      <c r="E58">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>59</v>
+      </c>
+      <c r="B59">
+        <v>-3.7029628934405814</v>
+      </c>
+      <c r="C59">
+        <v>4.9470486584748956</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>60</v>
+      </c>
+      <c r="B60">
+        <v>-1.6738584059008697</v>
+      </c>
+      <c r="C60">
+        <v>1.4687595459465255</v>
+      </c>
+      <c r="D60">
+        <v>1.9023482730536532</v>
+      </c>
+      <c r="E60">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>61</v>
+      </c>
+      <c r="B61">
+        <v>0.35670559884174047</v>
+      </c>
+      <c r="C61">
+        <v>-0.19813287233047527</v>
+      </c>
+      <c r="D61">
+        <v>2.2080427934178481</v>
+      </c>
+      <c r="E61">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>62</v>
+      </c>
+      <c r="B62">
+        <v>-0.25449551626526545</v>
+      </c>
+      <c r="C62">
+        <v>0.24916452568310904</v>
+      </c>
+      <c r="D62">
+        <v>2.2499926262188996</v>
+      </c>
+      <c r="E62">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>63</v>
+      </c>
+      <c r="B63">
+        <v>-0.27687930675666578</v>
+      </c>
+      <c r="C63">
+        <v>0.14792750349893644</v>
+      </c>
+      <c r="D63">
+        <v>2.3226449216359026</v>
+      </c>
+      <c r="E63">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>64</v>
+      </c>
+      <c r="B64">
+        <v>2.1154985249154064</v>
+      </c>
+      <c r="C64">
+        <v>-1.0206545998315188</v>
+      </c>
+      <c r="D64">
+        <v>2.2970176004145153</v>
+      </c>
+      <c r="E64">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>65</v>
+      </c>
+      <c r="B65">
+        <v>-34.352474792971968</v>
+      </c>
+      <c r="C65">
+        <v>12.517998069083513</v>
+      </c>
+      <c r="D65">
+        <v>2.6365905520305022</v>
+      </c>
+      <c r="E65">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>66</v>
+      </c>
+      <c r="B66">
+        <v>6.424275156865634</v>
+      </c>
+      <c r="C66">
+        <v>7.0305378918565387</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>67</v>
+      </c>
+      <c r="B67">
+        <v>1.2022869185075862</v>
+      </c>
+      <c r="C67">
+        <v>0.9755627924610899</v>
+      </c>
+      <c r="D67">
+        <v>-2.0939551015871962</v>
+      </c>
+      <c r="E67">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>68</v>
+      </c>
+      <c r="B68">
+        <v>-0.44423601080399377</v>
+      </c>
+      <c r="C68">
+        <v>-0.27023145196203596</v>
+      </c>
+      <c r="D68">
+        <v>-2.258343274064667</v>
+      </c>
+      <c r="E68">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>69</v>
+      </c>
+      <c r="B69">
+        <v>0.29486503986627061</v>
+      </c>
+      <c r="C69">
+        <v>0.26612559824573334</v>
+      </c>
+      <c r="D69">
+        <v>-2.2844285994396154</v>
+      </c>
+      <c r="E69">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>70</v>
+      </c>
+      <c r="B70">
+        <v>0.16535489140014914</v>
+      </c>
+      <c r="C70">
+        <v>8.4857551365438988E-2</v>
+      </c>
+      <c r="D70">
+        <v>-2.3505089094260305</v>
+      </c>
+      <c r="E70">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>71</v>
+      </c>
+      <c r="B71">
+        <v>0.12772693836727811</v>
+      </c>
+      <c r="C71">
+        <v>1.6481068018069783E-3</v>
+      </c>
+      <c r="D71">
+        <v>-2.3332086992587073</v>
+      </c>
+      <c r="E71">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>72</v>
+      </c>
+      <c r="B72">
+        <v>10.670363712253765</v>
+      </c>
+      <c r="C72">
+        <v>4.7113788281290754</v>
+      </c>
+      <c r="D72">
+        <v>-2.262825586253808</v>
+      </c>
+      <c r="E72">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>73</v>
+      </c>
+      <c r="B73">
+        <v>-14.477261092911016</v>
+      </c>
+      <c r="C73">
+        <v>11.836738920518329</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>74</v>
+      </c>
+      <c r="B74">
+        <v>4.99722249785024E-2</v>
+      </c>
+      <c r="C74">
+        <v>-0.14409088933302372</v>
+      </c>
+      <c r="D74">
+        <v>2.3645401951785474</v>
+      </c>
+      <c r="E74">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>75</v>
+      </c>
+      <c r="B75">
+        <v>0.50120755981203957</v>
+      </c>
+      <c r="C75">
+        <v>-0.31988864353620561</v>
+      </c>
+      <c r="D75">
+        <v>2.2679271924843145</v>
+      </c>
+      <c r="E75">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>76</v>
+      </c>
+      <c r="B76">
+        <v>-0.3583205082299965</v>
+      </c>
+      <c r="C76">
+        <v>0.29525546710378731</v>
+      </c>
+      <c r="D76">
+        <v>2.284054872900791</v>
+      </c>
+      <c r="E76">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>77</v>
+      </c>
+      <c r="B77">
+        <v>-0.15836350151286002</v>
+      </c>
+      <c r="C77">
+        <v>5.7484554736361118E-2</v>
+      </c>
+      <c r="D77">
+        <v>2.340377964170083</v>
+      </c>
+      <c r="E77">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>78</v>
+      </c>
+      <c r="B78">
+        <v>-1.0910767217939206</v>
+      </c>
+      <c r="C78">
+        <v>0.40626097787290194</v>
+      </c>
+      <c r="D78">
+        <v>2.3025299010487532</v>
+      </c>
+      <c r="E78">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>79</v>
+      </c>
+      <c r="B79">
+        <v>-5.2807434075062218</v>
+      </c>
+      <c r="C79">
+        <v>2.5280966966307474</v>
+      </c>
+      <c r="D79">
+        <v>2.0251395917015942</v>
+      </c>
+      <c r="E79">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>80</v>
+      </c>
+      <c r="B80">
+        <v>62.444872810655177</v>
+      </c>
+      <c r="C80">
+        <v>30.557218732331791</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>81</v>
+      </c>
+      <c r="B81">
+        <v>-2.9851865439828078</v>
+      </c>
+      <c r="C81">
+        <v>-2.7143616879500625</v>
+      </c>
+      <c r="D81">
+        <v>-2.8232210732266592</v>
+      </c>
+      <c r="E81">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>82</v>
+      </c>
+      <c r="B82">
+        <v>-0.30951348959680686</v>
+      </c>
+      <c r="C82">
+        <v>-0.14890177557358195</v>
+      </c>
+      <c r="D82">
+        <v>-2.2024912347729124</v>
+      </c>
+      <c r="E82">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>83</v>
+      </c>
+      <c r="B83">
+        <v>0.37958039712568059</v>
+      </c>
+      <c r="C83">
+        <v>0.30870547190126796</v>
+      </c>
+      <c r="D83">
+        <v>-2.2591098110673649</v>
+      </c>
+      <c r="E83">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>84</v>
+      </c>
+      <c r="B84">
+        <v>0.13945182265888101</v>
+      </c>
+      <c r="C84">
+        <v>4.2395262269096658E-2</v>
+      </c>
+      <c r="D84">
+        <v>-2.3137795274802495</v>
+      </c>
+      <c r="E84">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>85</v>
+      </c>
+      <c r="B85">
+        <v>0.47884349194642534</v>
+      </c>
+      <c r="C85">
+        <v>0.13915329815446711</v>
+      </c>
+      <c r="D85">
+        <v>-2.2718726568633318</v>
+      </c>
+      <c r="E85">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>86</v>
+      </c>
+      <c r="B86">
+        <v>-6.0581264534973656</v>
+      </c>
+      <c r="C86">
+        <v>-3.2811827737430286</v>
+      </c>
+      <c r="D86">
+        <v>-2.1095125833749364</v>
+      </c>
+      <c r="E86">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>87</v>
+      </c>
+      <c r="B87">
+        <v>447.01270804825708</v>
+      </c>
+      <c r="C87">
+        <v>88.825423281778455</v>
+      </c>
+      <c r="D87">
+        <v>-3.4004055462981149</v>
+      </c>
+      <c r="E87">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>88</v>
+      </c>
+      <c r="B88">
+        <v>-4.0084367975390087</v>
+      </c>
+      <c r="C88">
+        <v>5.1819377683545405</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>89</v>
+      </c>
+      <c r="B89">
+        <v>-0.87225141236158688</v>
+      </c>
+      <c r="C89">
+        <v>0.97306183078184472</v>
+      </c>
+      <c r="D89">
+        <v>1.8885140739222248</v>
+      </c>
+      <c r="E89">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>90</v>
+      </c>
+      <c r="B90">
+        <v>-0.43537445906424765</v>
+      </c>
+      <c r="C90">
+        <v>0.37118909194017058</v>
+      </c>
+      <c r="D90">
+        <v>2.2278414941771283</v>
+      </c>
+      <c r="E90">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>91</v>
+      </c>
+      <c r="B91">
+        <v>-3.4850651541103742E-2</v>
+      </c>
+      <c r="C91">
+        <v>8.9077817174989509E-3</v>
+      </c>
+      <c r="D91">
+        <v>2.3042223565350195</v>
+      </c>
+      <c r="E91">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>92</v>
+      </c>
+      <c r="B92">
+        <v>1.7121258669551034E-5</v>
+      </c>
+      <c r="C92">
+        <v>-2.1098670760775363E-2</v>
+      </c>
+      <c r="D92">
+        <v>2.2922250694352604</v>
+      </c>
+      <c r="E92">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>93</v>
+      </c>
+      <c r="B93">
+        <v>1.8348707991111088</v>
+      </c>
+      <c r="C93">
+        <v>-0.83105359266012124</v>
+      </c>
+      <c r="D93">
+        <v>2.2737515304492519</v>
+      </c>
+      <c r="E93">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>94</v>
+      </c>
+      <c r="B94">
+        <v>-31.937386936812182</v>
+      </c>
+      <c r="C94">
+        <v>11.803247923291639</v>
+      </c>
+      <c r="D94">
+        <v>2.6131767524853569</v>
+      </c>
+      <c r="E94">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>95</v>
+      </c>
+      <c r="B95">
+        <v>6.7088816805479832</v>
+      </c>
+      <c r="C95">
+        <v>7.206429651952134</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>96</v>
+      </c>
+      <c r="B96">
+        <v>0.42966303296467517</v>
+      </c>
+      <c r="C96">
+        <v>0.52555465205029805</v>
+      </c>
+      <c r="D96">
+        <v>-2.069062384725199</v>
+      </c>
+      <c r="E96">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>97</v>
+      </c>
+      <c r="B97">
+        <v>0.42548498115027472</v>
+      </c>
+      <c r="C97">
+        <v>0.33306695189447943</v>
+      </c>
+      <c r="D97">
+        <v>-2.2809617639863773</v>
+      </c>
+      <c r="E97">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>98</v>
+      </c>
+      <c r="B98">
+        <v>-1.6287789830530062E-2</v>
+      </c>
+      <c r="C98">
+        <v>-3.6211648799325577E-2</v>
+      </c>
+      <c r="D98">
+        <v>-2.3329513939694859</v>
+      </c>
+      <c r="E98">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>99</v>
+      </c>
+      <c r="B99">
+        <v>-4.895336649995715E-2</v>
+      </c>
+      <c r="C99">
+        <v>-4.3141931280601016E-2</v>
+      </c>
+      <c r="D99">
+        <v>-2.3108149022023854</v>
+      </c>
+      <c r="E99">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>100</v>
+      </c>
+      <c r="B100">
+        <v>0.16841332955411195</v>
+      </c>
+      <c r="C100">
+        <v>7.2600160516219855E-2</v>
+      </c>
+      <c r="D100">
+        <v>-2.3010517577402254</v>
+      </c>
+      <c r="E100">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>101</v>
+      </c>
+      <c r="B101">
+        <v>3.7126411825261179E-3</v>
+      </c>
+      <c r="C101">
+        <v>-6.8770237095523032E-2</v>
+      </c>
+      <c r="D101">
+        <v>-2.2687178343546619</v>
+      </c>
+      <c r="E101">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E101"/>
+  <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14334,13 +21906,13 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>-0.000005271747302176636</v>
+        <v>-5.2717473021766357E-6</v>
       </c>
       <c r="C1">
-        <v>-0.002681774821160092</v>
+        <v>-2.6817748211600918E-3</v>
       </c>
       <c r="D1">
-        <v>2.282357592913166</v>
+        <v>0.4381429697971345</v>
       </c>
       <c r="E1">
         <v>1</v>
@@ -14351,13 +21923,13 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.0038393269359681876</v>
+        <v>3.8393269359681876E-3</v>
       </c>
       <c r="C2">
-        <v>-0.004366559664693327</v>
+        <v>-4.3665596646933272E-3</v>
       </c>
       <c r="D2">
-        <v>2.280003337539578</v>
+        <v>0.4385957712454995</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -14368,13 +21940,13 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>-0.024992323333769162</v>
+        <v>-2.4992323333769162E-2</v>
       </c>
       <c r="C3">
-        <v>0.009975045290906297</v>
+        <v>9.9750452909062974E-3</v>
       </c>
       <c r="D3">
-        <v>2.27838901019514</v>
+        <v>0.4389066006505631</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -14385,13 +21957,13 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.0648988519514205</v>
+        <v>6.4898851951420505E-2</v>
       </c>
       <c r="C4">
-        <v>-0.040497860810356244</v>
+        <v>-4.0497860810356244E-2</v>
       </c>
       <c r="D4">
-        <v>2.2726978814524297</v>
+        <v>0.4400041274996923</v>
       </c>
       <c r="E4">
         <v>4</v>
@@ -14402,13 +21974,13 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>-0.08097241066535311</v>
+        <v>-8.0972410665353114E-2</v>
       </c>
       <c r="C5">
-        <v>0.05240739005173032</v>
+        <v>5.240739005173032E-2</v>
       </c>
       <c r="D5">
-        <v>2.2748455503375467</v>
+        <v>0.4395871811527351</v>
       </c>
       <c r="E5">
         <v>5</v>
@@ -14425,7 +21997,7 @@
         <v>0.30141961881401946</v>
       </c>
       <c r="D6">
-        <v>2.274134753248471</v>
+        <v>0.43972395326034097</v>
       </c>
       <c r="E6">
         <v>6</v>
@@ -14436,13 +22008,13 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>-7.233109369184961</v>
+        <v>-7.2331093691849606</v>
       </c>
       <c r="C7">
         <v>3.3821217228741527</v>
       </c>
       <c r="D7">
-        <v>2.1168501906836314</v>
+        <v>0.4709736352584269</v>
       </c>
       <c r="E7">
         <v>7</v>
@@ -14476,7 +22048,7 @@
         <v>-1.0871925721640672</v>
       </c>
       <c r="D9">
-        <v>-2.496983283910414</v>
+        <v>-0.3977186875033001</v>
       </c>
       <c r="E9">
         <v>9</v>
@@ -14487,13 +22059,13 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0.07814853231462136</v>
+        <v>7.8148532314621363E-2</v>
       </c>
       <c r="C10">
-        <v>0.046215780102130635</v>
+        <v>4.6215780102130635E-2</v>
       </c>
       <c r="D10">
-        <v>-2.2641014644376165</v>
+        <v>-0.44167477600133737</v>
       </c>
       <c r="E10">
         <v>10</v>
@@ -14504,13 +22076,13 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>-0.08807036610198199</v>
+        <v>-8.8070366101981989E-2</v>
       </c>
       <c r="C11">
-        <v>-0.061481815935871376</v>
+        <v>-6.1481815935871376E-2</v>
       </c>
       <c r="D11">
-        <v>-2.259306721690482</v>
+        <v>-0.44260792274527344</v>
       </c>
       <c r="E11">
         <v>11</v>
@@ -14521,13 +22093,13 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>0.07535946850889423</v>
+        <v>7.5359468508894231E-2</v>
       </c>
       <c r="C12">
-        <v>0.05029234548054623</v>
+        <v>5.029234548054623E-2</v>
       </c>
       <c r="D12">
-        <v>-2.256859772904897</v>
+        <v>-0.44309028724166627</v>
       </c>
       <c r="E12">
         <v>12</v>
@@ -14541,10 +22113,10 @@
         <v>1.290877360484818</v>
       </c>
       <c r="C13">
-        <v>0.5576173432900188</v>
+        <v>0.55761734329001877</v>
       </c>
       <c r="D13">
-        <v>-2.257187973959965</v>
+        <v>-0.44302613951506437</v>
       </c>
       <c r="E13">
         <v>13</v>
@@ -14555,13 +22127,13 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>4.804170711184351</v>
+        <v>4.8041707111843506</v>
       </c>
       <c r="C14">
-        <v>2.328493071132886</v>
+        <v>2.3284930711328862</v>
       </c>
       <c r="D14">
-        <v>-1.9878989687284463</v>
+        <v>-0.4981259199694965</v>
       </c>
       <c r="E14">
         <v>14</v>
@@ -14572,10 +22144,10 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>-76.07522152674635</v>
+        <v>-76.075221526746347</v>
       </c>
       <c r="C15">
-        <v>34.75512386310021</v>
+        <v>34.755123863100209</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -14592,10 +22164,10 @@
         <v>3.4592088726894605</v>
       </c>
       <c r="C16">
-        <v>-3.122709752857019</v>
+        <v>-3.1227097528570189</v>
       </c>
       <c r="D16">
-        <v>2.860525952541659</v>
+        <v>0.3294901983737284</v>
       </c>
       <c r="E16">
         <v>16</v>
@@ -14612,7 +22184,7 @@
         <v>0.18968379079164854</v>
       </c>
       <c r="D17">
-        <v>2.1960767703413584</v>
+        <v>0.4552555587058919</v>
       </c>
       <c r="E17">
         <v>17</v>
@@ -14622,221 +22194,104 @@
       <c r="A18" s="1">
         <v>18</v>
       </c>
-      <c r="B18">
-        <v>-0.0720590728997042</v>
-      </c>
-      <c r="C18">
-        <v>0.024915506049244113</v>
-      </c>
       <c r="D18">
-        <v>2.233493210062266</v>
-      </c>
-      <c r="E18">
-        <v>18</v>
+        <v>0.44772848335852916</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1">
         <v>19</v>
       </c>
-      <c r="B19">
-        <v>0.16331961066324738</v>
-      </c>
-      <c r="C19">
-        <v>-0.11307438485693999</v>
-      </c>
       <c r="D19">
-        <v>2.2123730291992914</v>
-      </c>
-      <c r="E19">
-        <v>19</v>
+        <v>0.4519840332656747</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1">
         <v>20</v>
       </c>
-      <c r="B20">
-        <v>-1.7887270504160573</v>
-      </c>
-      <c r="C20">
-        <v>0.8396661252239257</v>
-      </c>
       <c r="D20">
-        <v>2.2110479259078706</v>
-      </c>
-      <c r="E20">
-        <v>20</v>
+        <v>0.4522577024296992</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1">
         <v>21</v>
       </c>
-      <c r="B21">
-        <v>-3.4355166031892654</v>
-      </c>
-      <c r="C21">
-        <v>1.6935925503384675</v>
-      </c>
       <c r="D21">
-        <v>1.8834481948155424</v>
-      </c>
-      <c r="E21">
-        <v>21</v>
+        <v>0.5215886003283149</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1">
         <v>22</v>
       </c>
-      <c r="B22">
-        <v>5808.3519051976955</v>
-      </c>
-      <c r="C22">
-        <v>612.0814478259781</v>
-      </c>
       <c r="D22">
         <v>0</v>
-      </c>
-      <c r="E22">
-        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1">
         <v>23</v>
       </c>
-      <c r="B23">
-        <v>-7.596666576486889</v>
-      </c>
-      <c r="C23">
-        <v>-8.228442866116778</v>
-      </c>
       <c r="D23">
-        <v>-3.9957534356261575</v>
-      </c>
-      <c r="E23">
-        <v>23</v>
+        <v>-0.11949695559814513</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1">
         <v>24</v>
       </c>
-      <c r="B24">
-        <v>1.0062694022045275</v>
-      </c>
-      <c r="C24">
-        <v>0.9556937573392267</v>
-      </c>
       <c r="D24">
-        <v>-1.9679118368039332</v>
-      </c>
-      <c r="E24">
-        <v>24</v>
+        <v>-0.5042861098104027</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1">
         <v>25</v>
       </c>
-      <c r="B25">
-        <v>0.18147363407172082</v>
-      </c>
-      <c r="C25">
-        <v>0.12101961628229058</v>
-      </c>
       <c r="D25">
-        <v>-2.212043247537528</v>
-      </c>
-      <c r="E25">
-        <v>25</v>
+        <v>-0.45205147453982203</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1">
         <v>26</v>
       </c>
-      <c r="B26">
-        <v>-0.3567894111616285</v>
-      </c>
-      <c r="C26">
-        <v>-0.20332054662814164</v>
-      </c>
       <c r="D26">
-        <v>-2.211094462604991</v>
-      </c>
-      <c r="E26">
-        <v>26</v>
+        <v>-0.4522433335232</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1">
         <v>27</v>
       </c>
-      <c r="B27">
-        <v>0.7222526554682139</v>
-      </c>
-      <c r="C27">
-        <v>0.4460519820168253</v>
-      </c>
       <c r="D27">
-        <v>-2.248281905206916</v>
-      </c>
-      <c r="E27">
-        <v>27</v>
+        <v>-0.44459591718562047</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1">
         <v>28</v>
       </c>
-      <c r="B28">
-        <v>-3.6991356999364737</v>
-      </c>
-      <c r="C28">
-        <v>-1.8790797437143636</v>
-      </c>
       <c r="D28">
-        <v>-2.22765661232874</v>
-      </c>
-      <c r="E28">
-        <v>28</v>
+        <v>-0.4485498866722082</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1">
         <v>29</v>
       </c>
-      <c r="B29">
-        <v>79.80655019272515</v>
-      </c>
-      <c r="C29">
-        <v>24.444524815950807</v>
-      </c>
       <c r="D29">
-        <v>-2.876267196859291</v>
-      </c>
-      <c r="E29">
-        <v>29</v>
+        <v>-0.32664303571252545</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1">
         <v>30</v>
       </c>
-      <c r="B30">
-        <v>-4.835005710880507</v>
-      </c>
-      <c r="C30">
-        <v>5.858629064511883</v>
-      </c>
       <c r="D30">
         <v>0</v>
-      </c>
-      <c r="E30">
-        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -14850,7 +22305,7 @@
         <v>1.1182506246593085</v>
       </c>
       <c r="D31">
-        <v>1.9855694249660987</v>
+        <v>0.49890310788331393</v>
       </c>
       <c r="E31">
         <v>31</v>
@@ -14867,7 +22322,7 @@
         <v>0.12810904089184616</v>
       </c>
       <c r="D32">
-        <v>2.2553265588112352</v>
+        <v>0.4433839936037803</v>
       </c>
       <c r="E32">
         <v>32</v>
@@ -14878,13 +22333,13 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>0.419189649439183</v>
+        <v>0.41918964943918302</v>
       </c>
       <c r="C33">
-        <v>-0.2528564610116661</v>
+        <v>-0.25285646101166609</v>
       </c>
       <c r="D33">
-        <v>2.239882876517928</v>
+        <v>0.4464024849027762</v>
       </c>
       <c r="E33">
         <v>33</v>
@@ -14901,7 +22356,7 @@
         <v>0.30854177039226394</v>
       </c>
       <c r="D34">
-        <v>2.2683723894642327</v>
+        <v>0.440652036520729</v>
       </c>
       <c r="E34">
         <v>34</v>
@@ -14915,10 +22370,10 @@
         <v>1.0507462675356127</v>
       </c>
       <c r="C35">
-        <v>-0.4898626371090788</v>
+        <v>-0.48986263710907879</v>
       </c>
       <c r="D35">
-        <v>2.3130866629819997</v>
+        <v>0.432311709783766</v>
       </c>
       <c r="E35">
         <v>35</v>
@@ -14932,10 +22387,10 @@
         <v>-20.908607848335823</v>
       </c>
       <c r="C36">
-        <v>8.328473178826815</v>
+        <v>8.3284731788268154</v>
       </c>
       <c r="D36">
-        <v>2.483396799097905</v>
+        <v>0.401033787431566</v>
       </c>
       <c r="E36">
         <v>36</v>
@@ -14946,10 +22401,10 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>7.887889165479667</v>
+        <v>7.8878891654796668</v>
       </c>
       <c r="C37">
-        <v>8.01105630148978</v>
+        <v>8.0110563014897807</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -14963,13 +22418,13 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>0.6735479975189269</v>
+        <v>0.67354799751892691</v>
       </c>
       <c r="C38">
-        <v>0.5960868544885879</v>
+        <v>0.59608685448858789</v>
       </c>
       <c r="D38">
-        <v>-2.1540030679122886</v>
+        <v>-0.46318157254737125</v>
       </c>
       <c r="E38">
         <v>38</v>
@@ -14983,10 +22438,10 @@
         <v>0.19905585232104916</v>
       </c>
       <c r="C39">
-        <v>0.09365737951168607</v>
+        <v>9.3657379511686067E-2</v>
       </c>
       <c r="D39">
-        <v>-2.2888322902219493</v>
+        <v>-0.43690351858401505</v>
       </c>
       <c r="E39">
         <v>39</v>
@@ -15000,10 +22455,10 @@
         <v>-0.43853808417768336</v>
       </c>
       <c r="C40">
-        <v>-0.2733730957989463</v>
+        <v>-0.27337309579894631</v>
       </c>
       <c r="D40">
-        <v>-2.2568695238295273</v>
+        <v>-0.4430223093495252</v>
       </c>
       <c r="E40">
         <v>40</v>
@@ -15020,7 +22475,7 @@
         <v>0.2675465729823634</v>
       </c>
       <c r="D41">
-        <v>-2.2771910556415844</v>
+        <v>-0.4389640500349338</v>
       </c>
       <c r="E41">
         <v>41</v>
@@ -15031,13 +22486,13 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>0.5274742834371774</v>
+        <v>0.52747428343717739</v>
       </c>
       <c r="C42">
         <v>0.22185603361124948</v>
       </c>
       <c r="D42">
-        <v>-2.331574729395518</v>
+        <v>-0.42889447888268023</v>
       </c>
       <c r="E42">
         <v>42</v>
@@ -15048,13 +22503,13 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>9.329858637504174</v>
+        <v>9.3298586375041737</v>
       </c>
       <c r="C43">
-        <v>4.166137087167349</v>
+        <v>4.1661370871673489</v>
       </c>
       <c r="D43">
-        <v>-2.230462927547423</v>
+        <v>-0.44778040888311543</v>
       </c>
       <c r="E43">
         <v>43</v>
@@ -15082,13 +22537,13 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>0.5323266135012346</v>
+        <v>0.53232661350123456</v>
       </c>
       <c r="C45">
         <v>-0.46317868070195684</v>
       </c>
       <c r="D45">
-        <v>2.3946363699706468</v>
+        <v>0.41707834623516743</v>
       </c>
       <c r="E45">
         <v>45</v>
@@ -15102,10 +22557,10 @@
         <v>-0.20954926332695428</v>
       </c>
       <c r="C46">
-        <v>0.09226724697678566</v>
+        <v>9.2267246976785663E-2</v>
       </c>
       <c r="D46">
-        <v>2.294296966703668</v>
+        <v>0.43586335721267433</v>
       </c>
       <c r="E46">
         <v>46</v>
@@ -15116,13 +22571,13 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>0.4151684578000167</v>
+        <v>0.41516845780001671</v>
       </c>
       <c r="C47">
-        <v>-0.2725956971695108</v>
+        <v>-0.27259569716951082</v>
       </c>
       <c r="D47">
-        <v>2.2553287940022004</v>
+        <v>0.44330626591855876</v>
       </c>
       <c r="E47">
         <v>47</v>
@@ -15133,13 +22588,13 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>-0.2547709871260233</v>
+        <v>-0.25477098712602331</v>
       </c>
       <c r="C48">
         <v>0.21949747578879045</v>
       </c>
       <c r="D48">
-        <v>2.2628376650790396</v>
+        <v>0.4417979150401117</v>
       </c>
       <c r="E48">
         <v>48</v>
@@ -15153,10 +22608,10 @@
         <v>-1.4423855137047321</v>
       </c>
       <c r="C49">
-        <v>0.6235577954266345</v>
+        <v>0.62355779542663448</v>
       </c>
       <c r="D49">
-        <v>2.309649127371838</v>
+        <v>0.4329661857347702</v>
       </c>
       <c r="E49">
         <v>49</v>
@@ -15167,13 +22622,13 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>-5.158951594387048</v>
+        <v>-5.1589515943870481</v>
       </c>
       <c r="C50">
         <v>2.4371595468747387</v>
       </c>
       <c r="D50">
-        <v>2.03822282008982</v>
+        <v>0.4857551925581226</v>
       </c>
       <c r="E50">
         <v>50</v>
@@ -15184,7 +22639,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>63.10626923462622</v>
+        <v>63.106269234626218</v>
       </c>
       <c r="C51">
         <v>30.765210339990734</v>
@@ -15207,7 +22662,7 @@
         <v>-2.8101741524737807</v>
       </c>
       <c r="D52">
-        <v>-2.8214445639120442</v>
+        <v>-0.3386696979984207</v>
       </c>
       <c r="E52">
         <v>52</v>
@@ -15224,7 +22679,7 @@
         <v>0.23333264858327354</v>
       </c>
       <c r="D53">
-        <v>-2.230889633981237</v>
+        <v>-0.4481875318051226</v>
       </c>
       <c r="E53">
         <v>53</v>
@@ -15235,13 +22690,13 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>-0.3977247464321421</v>
+        <v>-0.39772474643214212</v>
       </c>
       <c r="C54">
         <v>-0.26097414282568454</v>
       </c>
       <c r="D54">
-        <v>-2.2268384245764206</v>
+        <v>-0.44898606560553894</v>
       </c>
       <c r="E54">
         <v>54</v>
@@ -15255,10 +22710,10 @@
         <v>0.32357020898213423</v>
       </c>
       <c r="C55">
-        <v>0.2511997045801436</v>
+        <v>0.25119970458014362</v>
       </c>
       <c r="D55">
-        <v>-2.2372166042544657</v>
+        <v>-0.4468508651073686</v>
       </c>
       <c r="E55">
         <v>55</v>
@@ -15269,13 +22724,13 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>0.9658159274847775</v>
+        <v>0.96581592748477751</v>
       </c>
       <c r="C56">
-        <v>0.3965216402356954</v>
+        <v>0.39652164023569542</v>
       </c>
       <c r="D56">
-        <v>-2.271180752707012</v>
+        <v>-0.44028854927168765</v>
       </c>
       <c r="E56">
         <v>56</v>
@@ -15286,13 +22741,13 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>-7.00876294909153</v>
+        <v>-7.0087629490915297</v>
       </c>
       <c r="C57">
-        <v>-4.076388942089563</v>
+        <v>-4.0763889420895634</v>
       </c>
       <c r="D57">
-        <v>-2.0538635706798454</v>
+        <v>-0.48408811570709187</v>
       </c>
       <c r="E57">
         <v>57</v>
@@ -15306,10 +22761,10 @@
         <v>1410.9447953490037</v>
       </c>
       <c r="C58">
-        <v>203.7070477821888</v>
+        <v>203.70704778218879</v>
       </c>
       <c r="D58">
-        <v>-3.689844547726932</v>
+        <v>-0.17489082864357358</v>
       </c>
       <c r="E58">
         <v>58</v>
@@ -15323,7 +22778,7 @@
         <v>-3.7029628934405814</v>
       </c>
       <c r="C59">
-        <v>4.947048658474896</v>
+        <v>4.9470486584748956</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -15343,7 +22798,7 @@
         <v>1.4687595459465255</v>
       </c>
       <c r="D60">
-        <v>1.9023482730536532</v>
+        <v>0.517583575152898</v>
       </c>
       <c r="E60">
         <v>60</v>
@@ -15360,7 +22815,7 @@
         <v>-0.19813287233047527</v>
       </c>
       <c r="D61">
-        <v>2.208042793417848</v>
+        <v>0.4528734668042396</v>
       </c>
       <c r="E61">
         <v>61</v>
@@ -15377,7 +22832,7 @@
         <v>0.24916452568310904</v>
       </c>
       <c r="D62">
-        <v>2.2499926262188996</v>
+        <v>0.44424138214500347</v>
       </c>
       <c r="E62">
         <v>62</v>
@@ -15388,13 +22843,13 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>-0.2768793067566658</v>
+        <v>-0.27687930675666578</v>
       </c>
       <c r="C63">
         <v>0.14792750349893644</v>
       </c>
       <c r="D63">
-        <v>2.3226449216359026</v>
+        <v>0.43053529001894886</v>
       </c>
       <c r="E63">
         <v>63</v>
@@ -15411,7 +22866,7 @@
         <v>-1.0206545998315188</v>
       </c>
       <c r="D64">
-        <v>2.2970176004145153</v>
+        <v>0.43526860507937737</v>
       </c>
       <c r="E64">
         <v>64</v>
@@ -15422,13 +22877,13 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>-34.35247479297197</v>
+        <v>-34.352474792971968</v>
       </c>
       <c r="C65">
         <v>12.517998069083513</v>
       </c>
       <c r="D65">
-        <v>2.636590552030502</v>
+        <v>0.3729770535598715</v>
       </c>
       <c r="E65">
         <v>65</v>
@@ -15442,7 +22897,7 @@
         <v>6.424275156865634</v>
       </c>
       <c r="C66">
-        <v>7.030537891856539</v>
+        <v>7.0305378918565387</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -15462,7 +22917,7 @@
         <v>0.9755627924610899</v>
       </c>
       <c r="D67">
-        <v>-2.093955101587196</v>
+        <v>-0.47507822601448657</v>
       </c>
       <c r="E67">
         <v>67</v>
@@ -15473,13 +22928,13 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>-0.4442360108039938</v>
+        <v>-0.44423601080399377</v>
       </c>
       <c r="C68">
         <v>-0.27023145196203596</v>
       </c>
       <c r="D68">
-        <v>-2.258343274064667</v>
+        <v>-0.44274298420296254</v>
       </c>
       <c r="E68">
         <v>68</v>
@@ -15490,13 +22945,13 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>0.2948650398662706</v>
+        <v>0.29486503986627061</v>
       </c>
       <c r="C69">
         <v>0.26612559824573334</v>
       </c>
       <c r="D69">
-        <v>-2.2844285994396154</v>
+        <v>-0.43755264138253513</v>
       </c>
       <c r="E69">
         <v>69</v>
@@ -15510,10 +22965,10 @@
         <v>0.16535489140014914</v>
       </c>
       <c r="C70">
-        <v>0.08485755136543899</v>
+        <v>8.4857551365438988E-2</v>
       </c>
       <c r="D70">
-        <v>-2.3505089094260305</v>
+        <v>-0.4254377939592444</v>
       </c>
       <c r="E70">
         <v>70</v>
@@ -15524,13 +22979,13 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>0.1277269383672781</v>
+        <v>0.12772693836727811</v>
       </c>
       <c r="C71">
-        <v>0.0016481068018069783</v>
+        <v>1.6481068018069783E-3</v>
       </c>
       <c r="D71">
-        <v>-2.3332086992587073</v>
+        <v>-0.42856563572493594</v>
       </c>
       <c r="E71">
         <v>71</v>
@@ -15544,10 +22999,10 @@
         <v>10.670363712253765</v>
       </c>
       <c r="C72">
-        <v>4.711378828129075</v>
+        <v>4.7113788281290754</v>
       </c>
       <c r="D72">
-        <v>-2.262825586253808</v>
+        <v>-0.4418008760630387</v>
       </c>
       <c r="E72">
         <v>72</v>
@@ -15575,13 +23030,13 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>0.0499722249785024</v>
+        <v>4.99722249785024E-2</v>
       </c>
       <c r="C74">
         <v>-0.14409088933302372</v>
       </c>
       <c r="D74">
-        <v>2.3645401951785474</v>
+        <v>0.4227693280578479</v>
       </c>
       <c r="E74">
         <v>74</v>
@@ -15592,13 +23047,13 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>0.5012075598120396</v>
+        <v>0.50120755981203957</v>
       </c>
       <c r="C75">
-        <v>-0.3198886435362056</v>
+        <v>-0.31988864353620561</v>
       </c>
       <c r="D75">
-        <v>2.2679271924843145</v>
+        <v>0.44082521214199716</v>
       </c>
       <c r="E75">
         <v>75</v>
@@ -15612,10 +23067,10 @@
         <v>-0.3583205082299965</v>
       </c>
       <c r="C76">
-        <v>0.2952554671037873</v>
+        <v>0.29525546710378731</v>
       </c>
       <c r="D76">
-        <v>2.284054872900791</v>
+        <v>0.43761853560319786</v>
       </c>
       <c r="E76">
         <v>76</v>
@@ -15629,10 +23084,10 @@
         <v>-0.15836350151286002</v>
       </c>
       <c r="C77">
-        <v>0.05748455473636112</v>
+        <v>5.7484554736361118E-2</v>
       </c>
       <c r="D77">
-        <v>2.340377964170083</v>
+        <v>0.427280396083533</v>
       </c>
       <c r="E77">
         <v>77</v>
@@ -15649,7 +23104,7 @@
         <v>0.40626097787290194</v>
       </c>
       <c r="D78">
-        <v>2.302529901048753</v>
+        <v>0.43424500756038054</v>
       </c>
       <c r="E78">
         <v>78</v>
@@ -15660,13 +23115,13 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>-5.280743407506222</v>
+        <v>-5.2807434075062218</v>
       </c>
       <c r="C79">
         <v>2.5280966966307474</v>
       </c>
       <c r="D79">
-        <v>2.025139591701594</v>
+        <v>0.4896866656955787</v>
       </c>
       <c r="E79">
         <v>79</v>
@@ -15677,10 +23132,10 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>62.44487281065518</v>
+        <v>62.444872810655177</v>
       </c>
       <c r="C80">
-        <v>30.55721873233179</v>
+        <v>30.557218732331791</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -15694,13 +23149,13 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>-2.985186543982808</v>
+        <v>-2.9851865439828078</v>
       </c>
       <c r="C81">
         <v>-2.7143616879500625</v>
       </c>
       <c r="D81">
-        <v>-2.823221073226659</v>
+        <v>-0.3388252714832229</v>
       </c>
       <c r="E81">
         <v>81</v>
@@ -15717,7 +23172,7 @@
         <v>-0.14890177557358195</v>
       </c>
       <c r="D82">
-        <v>-2.2024912347729124</v>
+        <v>-0.4540304624816895</v>
       </c>
       <c r="E82">
         <v>82</v>
@@ -15728,13 +23183,13 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>0.3795803971256806</v>
+        <v>0.37958039712568059</v>
       </c>
       <c r="C83">
         <v>0.30870547190126796</v>
       </c>
       <c r="D83">
-        <v>-2.259109811067365</v>
+        <v>-0.4424341744496535</v>
       </c>
       <c r="E83">
         <v>83</v>
@@ -15745,13 +23200,13 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>0.139451822658881</v>
+        <v>0.13945182265888101</v>
       </c>
       <c r="C84">
-        <v>0.04239526226909666</v>
+        <v>4.2395262269096658E-2</v>
       </c>
       <c r="D84">
-        <v>-2.3137795274802495</v>
+        <v>-0.43218997239079554</v>
       </c>
       <c r="E84">
         <v>84</v>
@@ -15768,7 +23223,7 @@
         <v>0.13915329815446711</v>
       </c>
       <c r="D85">
-        <v>-2.271872656863332</v>
+        <v>-0.44010083782892767</v>
       </c>
       <c r="E85">
         <v>85</v>
@@ -15779,13 +23234,13 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>-6.058126453497366</v>
+        <v>-6.0581264534973656</v>
       </c>
       <c r="C86">
         <v>-3.2811827737430286</v>
       </c>
       <c r="D86">
-        <v>-2.1095125833749364</v>
+        <v>-0.47295320722375556</v>
       </c>
       <c r="E86">
         <v>86</v>
@@ -15796,13 +23251,13 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>447.0127080482571</v>
+        <v>447.01270804825708</v>
       </c>
       <c r="C87">
-        <v>88.82542328177846</v>
+        <v>88.825423281778455</v>
       </c>
       <c r="D87">
-        <v>-3.400405546298115</v>
+        <v>-0.230364055246828</v>
       </c>
       <c r="E87">
         <v>87</v>
@@ -15813,7 +23268,7 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>-4.008436797539009</v>
+        <v>-4.0084367975390087</v>
       </c>
       <c r="C88">
         <v>5.1819377683545405</v>
@@ -15830,13 +23285,13 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>-0.8722514123615869</v>
+        <v>-0.87225141236158688</v>
       </c>
       <c r="C89">
-        <v>0.9730618307818447</v>
+        <v>0.97306183078184472</v>
       </c>
       <c r="D89">
-        <v>1.8885140739222248</v>
+        <v>0.5237642403523518</v>
       </c>
       <c r="E89">
         <v>89</v>
@@ -15850,10 +23305,10 @@
         <v>-0.43537445906424765</v>
       </c>
       <c r="C90">
-        <v>0.3711890919401706</v>
+        <v>0.37118909194017058</v>
       </c>
       <c r="D90">
-        <v>2.2278414941771283</v>
+        <v>0.44850508192145405</v>
       </c>
       <c r="E90">
         <v>90</v>
@@ -15864,13 +23319,13 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>-0.03485065154110374</v>
+        <v>-3.4850651541103742E-2</v>
       </c>
       <c r="C91">
-        <v>0.008907781717498951</v>
+        <v>8.9077817174989509E-3</v>
       </c>
       <c r="D91">
-        <v>2.3042223565350195</v>
+        <v>0.43398549375272377</v>
       </c>
       <c r="E91">
         <v>91</v>
@@ -15881,13 +23336,13 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>0.000017121258669551034</v>
+        <v>1.7121258669551034E-5</v>
       </c>
       <c r="C92">
-        <v>-0.021098670760775363</v>
+        <v>-2.1098670760775363E-2</v>
       </c>
       <c r="D92">
-        <v>2.2922250694352604</v>
+        <v>0.43625258527735317</v>
       </c>
       <c r="E92">
         <v>92</v>
@@ -15901,10 +23356,10 @@
         <v>1.8348707991111088</v>
       </c>
       <c r="C93">
-        <v>-0.8310535926601212</v>
+        <v>-0.83105359266012124</v>
       </c>
       <c r="D93">
-        <v>2.273751530449252</v>
+        <v>0.4397969822467879</v>
       </c>
       <c r="E93">
         <v>93</v>
@@ -15915,13 +23370,13 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>-31.93738693681218</v>
+        <v>-31.937386936812182</v>
       </c>
       <c r="C94">
-        <v>11.80324792329164</v>
+        <v>11.803247923291639</v>
       </c>
       <c r="D94">
-        <v>2.613176752485357</v>
+        <v>0.37721648556315557</v>
       </c>
       <c r="E94">
         <v>94</v>
@@ -15932,7 +23387,7 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>6.708881680547983</v>
+        <v>6.7088816805479832</v>
       </c>
       <c r="C95">
         <v>7.206429651952134</v>
@@ -15949,13 +23404,13 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>0.4296630329646752</v>
+        <v>0.42966303296467517</v>
       </c>
       <c r="C96">
-        <v>0.525554652050298</v>
+        <v>0.52555465205029805</v>
       </c>
       <c r="D96">
-        <v>-2.069062384725199</v>
+        <v>-0.48177865832941974</v>
       </c>
       <c r="E96">
         <v>96</v>
@@ -15966,13 +23421,13 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>0.4254849811502747</v>
+        <v>0.42548498115027472</v>
       </c>
       <c r="C97">
         <v>0.33306695189447943</v>
       </c>
       <c r="D97">
-        <v>-2.2809617639863773</v>
+        <v>-0.4381853297611584</v>
       </c>
       <c r="E97">
         <v>97</v>
@@ -15983,13 +23438,13 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>-0.016287789830530062</v>
+        <v>-1.6287789830530062E-2</v>
       </c>
       <c r="C98">
-        <v>-0.03621164879932558</v>
+        <v>-3.6211648799325577E-2</v>
       </c>
       <c r="D98">
-        <v>-2.332951393969486</v>
+        <v>-0.42863322196865367</v>
       </c>
       <c r="E98">
         <v>98</v>
@@ -16000,13 +23455,13 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>-0.04895336649995715</v>
+        <v>-4.895336649995715E-2</v>
       </c>
       <c r="C99">
-        <v>-0.043141931280601016</v>
+        <v>-4.3141931280601016E-2</v>
       </c>
       <c r="D99">
-        <v>-2.3108149022023854</v>
+        <v>-0.4327428656336924</v>
       </c>
       <c r="E99">
         <v>99</v>
@@ -16020,10 +23475,10 @@
         <v>0.16841332955411195</v>
       </c>
       <c r="C100">
-        <v>0.07260016051621986</v>
+        <v>7.2600160516219855E-2</v>
       </c>
       <c r="D100">
-        <v>-2.3010517577402254</v>
+        <v>-0.4345838758882324</v>
       </c>
       <c r="E100">
         <v>100</v>
@@ -16034,16 +23489,21 @@
         <v>101</v>
       </c>
       <c r="B101">
-        <v>0.003712641182526118</v>
+        <v>3.7126411825261179E-3</v>
       </c>
       <c r="C101">
-        <v>-0.06877023709552303</v>
+        <v>-6.8770237095523032E-2</v>
       </c>
       <c r="D101">
-        <v>-2.268717834354662</v>
+        <v>-0.44071995984022483</v>
       </c>
       <c r="E101">
         <v>101</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="D102">
+        <v>-0.45315333982535644</v>
       </c>
     </row>
   </sheetData>

--- a/pkg/pchip/pchip_test.xlsx
+++ b/pkg/pchip/pchip_test.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="true" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
@@ -22,11 +22,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000000000000000000"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -57,14 +57,14 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1372,270 +1372,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
-                <c:pt idx="0">
-                  <c:v>-2.6817748211600918E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-4.3665596646933272E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.9750452909062974E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-4.0497860810356244E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.240739005173032E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.30141961881401946</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.3821217228741527</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>16.098568438562108</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-1.0871925721640672</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.6215780102130635E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-6.1481815935871376E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5.029234548054623E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.55761734329001877</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.3284930711328862</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>34.755123863100209</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-3.1227097528570189</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.18968379079164854</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1.1182506246593085</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.12810904089184616</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-0.25285646101166609</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.30854177039226394</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-0.48986263710907879</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>8.3284731788268154</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>8.0110563014897807</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.59608685448858789</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>9.3657379511686067E-2</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>-0.27337309579894631</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.2675465729823634</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.22185603361124948</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>4.1661370871673489</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>12.780792080696548</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>-0.46317868070195684</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>9.2267246976785663E-2</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>-0.27259569716951082</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.21949747578879045</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.62355779542663448</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>2.4371595468747387</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>30.765210339990734</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>-2.8101741524737807</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.23333264858327354</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>-0.26097414282568454</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.25119970458014362</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.39652164023569542</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>-4.0763889420895634</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>203.70704778218879</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>4.9470486584748956</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>1.4687595459465255</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>-0.19813287233047527</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.24916452568310904</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.14792750349893644</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>-1.0206545998315188</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>12.517998069083513</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>7.0305378918565387</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.9755627924610899</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>-0.27023145196203596</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.26612559824573334</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>8.4857551365438988E-2</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>1.6481068018069783E-3</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>4.7113788281290754</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>11.836738920518329</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>-0.14409088933302372</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>-0.31988864353620561</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.29525546710378731</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>5.7484554736361118E-2</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.40626097787290194</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>2.5280966966307474</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>30.557218732331791</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>-2.7143616879500625</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>-0.14890177557358195</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.30870547190126796</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>4.2395262269096658E-2</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.13915329815446711</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>-3.2811827737430286</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>88.825423281778455</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>5.1819377683545405</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0.97306183078184472</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0.37118909194017058</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>8.9077817174989509E-3</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>-2.1098670760775363E-2</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>-0.83105359266012124</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>11.803247923291639</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>7.206429651952134</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.52555465205029805</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0.33306695189447943</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>-3.6211648799325577E-2</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>-4.3141931280601016E-2</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>7.2600160516219855E-2</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>-6.8770237095523032E-2</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2221,268 +1957,307 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>2.2823575929131659</c:v>
+                  <c:v>0.43814296979713452</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2800033375395778</c:v>
+                  <c:v>0.43859577124549948</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.2783890101951401</c:v>
+                  <c:v>0.43890660065056308</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2726978814524297</c:v>
+                  <c:v>0.44000412749969231</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.2748455503375467</c:v>
+                  <c:v>0.4395871811527351</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.2741347532484708</c:v>
+                  <c:v>0.43972395326034097</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.1168501906836314</c:v>
+                  <c:v>0.47097363525842689</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-2.496983283910414</c:v>
+                  <c:v>-0.39771868750330008</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-2.2641014644376165</c:v>
+                  <c:v>-0.44167477600133737</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-2.2593067216904821</c:v>
+                  <c:v>-0.44260792274527344</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-2.2568597729048969</c:v>
+                  <c:v>-0.44309028724166627</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-2.2571879739599652</c:v>
+                  <c:v>-0.44302613951506437</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-1.9878989687284463</c:v>
+                  <c:v>-0.49812591996949651</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.8605259525416589</c:v>
+                  <c:v>0.32949019837372839</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.1960767703413584</c:v>
+                  <c:v>0.45525555870589191</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.44772848335852916</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.45198403326567471</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.4522577024296992</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.52158860032831489</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.11949695559814513</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.50428610981040267</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.45205147453982203</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.45224333352320001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.44459591718562047</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.44854988667220819</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.32664303571252545</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.9855694249660987</c:v>
+                  <c:v>0.49890310788331393</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2.2553265588112352</c:v>
+                  <c:v>0.44338399360378028</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2.2398828765179282</c:v>
+                  <c:v>0.44640248490277618</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2.2683723894642327</c:v>
+                  <c:v>0.44065203652072898</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2.3130866629819997</c:v>
+                  <c:v>0.43231170978376599</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2.4833967990979051</c:v>
+                  <c:v>0.40103378743156598</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-2.1540030679122886</c:v>
+                  <c:v>-0.46318157254737125</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-2.2888322902219493</c:v>
+                  <c:v>-0.43690351858401505</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-2.2568695238295273</c:v>
+                  <c:v>-0.44302230934952519</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-2.2771910556415844</c:v>
+                  <c:v>-0.43896405003493377</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-2.331574729395518</c:v>
+                  <c:v>-0.42889447888268023</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-2.230462927547423</c:v>
+                  <c:v>-0.44778040888311543</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2.3946363699706468</c:v>
+                  <c:v>0.41707834623516743</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2.2942969667036679</c:v>
+                  <c:v>0.43586335721267433</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2.2553287940022004</c:v>
+                  <c:v>0.44330626591855876</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2.2628376650790396</c:v>
+                  <c:v>0.44179791504011168</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2.3096491273718378</c:v>
+                  <c:v>0.43296618573477019</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2.0382228200898198</c:v>
+                  <c:v>0.48575519255812261</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-2.8214445639120442</c:v>
+                  <c:v>-0.33866969799842073</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-2.2308896339812372</c:v>
+                  <c:v>-0.44818753180512261</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-2.2268384245764206</c:v>
+                  <c:v>-0.44898606560553894</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-2.2372166042544657</c:v>
+                  <c:v>-0.4468508651073686</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-2.271180752707012</c:v>
+                  <c:v>-0.44028854927168765</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-2.0538635706798454</c:v>
+                  <c:v>-0.48408811570709187</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-3.6898445477269322</c:v>
+                  <c:v>-0.17489082864357358</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.9023482730536532</c:v>
+                  <c:v>0.51758357515289799</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2.2080427934178481</c:v>
+                  <c:v>0.45287346680423962</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2.2499926262188996</c:v>
+                  <c:v>0.44424138214500347</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2.3226449216359026</c:v>
+                  <c:v>0.43053529001894886</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2.2970176004145153</c:v>
+                  <c:v>0.43526860507937737</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2.6365905520305022</c:v>
+                  <c:v>0.37297705355987149</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-2.0939551015871962</c:v>
+                  <c:v>-0.47507822601448657</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>-2.258343274064667</c:v>
+                  <c:v>-0.44274298420296254</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-2.2844285994396154</c:v>
+                  <c:v>-0.43755264138253513</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>-2.3505089094260305</c:v>
+                  <c:v>-0.42543779395924441</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>-2.3332086992587073</c:v>
+                  <c:v>-0.42856563572493594</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>-2.262825586253808</c:v>
+                  <c:v>-0.44180087606303869</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>2.3645401951785474</c:v>
+                  <c:v>0.42276932805784789</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>2.2679271924843145</c:v>
+                  <c:v>0.44082521214199716</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>2.284054872900791</c:v>
+                  <c:v>0.43761853560319786</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2.340377964170083</c:v>
+                  <c:v>0.42728039608353302</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>2.3025299010487532</c:v>
+                  <c:v>0.43424500756038054</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>2.0251395917015942</c:v>
+                  <c:v>0.48968666569557873</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>-2.8232210732266592</c:v>
+                  <c:v>-0.33882527148322289</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>-2.2024912347729124</c:v>
+                  <c:v>-0.45403046248168949</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-2.2591098110673649</c:v>
+                  <c:v>-0.44243417444965349</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>-2.3137795274802495</c:v>
+                  <c:v>-0.43218997239079554</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>-2.2718726568633318</c:v>
+                  <c:v>-0.44010083782892767</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>-2.1095125833749364</c:v>
+                  <c:v>-0.47295320722375556</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>-3.4004055462981149</c:v>
+                  <c:v>-0.23036405524682799</c:v>
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1.8885140739222248</c:v>
+                  <c:v>0.52376424035235181</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>2.2278414941771283</c:v>
+                  <c:v>0.44850508192145405</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>2.3042223565350195</c:v>
+                  <c:v>0.43398549375272377</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>2.2922250694352604</c:v>
+                  <c:v>0.43625258527735317</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>2.2737515304492519</c:v>
+                  <c:v>0.43979698224678793</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>2.6131767524853569</c:v>
+                  <c:v>0.37721648556315557</c:v>
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>-2.069062384725199</c:v>
+                  <c:v>-0.48177865832941974</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>-2.2809617639863773</c:v>
+                  <c:v>-0.43818532976115843</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>-2.3329513939694859</c:v>
+                  <c:v>-0.42863322196865367</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>-2.3108149022023854</c:v>
+                  <c:v>-0.43274286563369241</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>-2.3010517577402254</c:v>
+                  <c:v>-0.43458387588823238</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>-2.2687178343546619</c:v>
+                  <c:v>-0.44071995984022483</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3068,270 +2843,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>101</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -6205,6 +5716,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7091,6 +6603,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7977,6 +7490,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8863,6 +8377,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10118,270 +9633,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
-                <c:pt idx="0">
-                  <c:v>-5.2717473021766357E-6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.8393269359681876E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-2.4992323333769162E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.4898851951420505E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-8.0972410665353114E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.7245703167151184</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-7.2331093691849606</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>23.340810175250187</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-1.2411464252150315</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7.8148532314621363E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-8.8070366101981989E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7.5359468508894231E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.290877360484818</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4.8041707111843506</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-76.075221526746347</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3.4592088726894605</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-0.2204560193211709</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-1.2193472712435576</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-0.22028936963582377</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.41918964943918302</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-0.39800640745936766</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1.0507462675356127</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-20.908607848335823</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>7.8878891654796668</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.67354799751892691</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.19905585232104916</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>-0.43853808417768336</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.31750631622496533</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.52747428343717739</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>9.3298586375041737</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>-16.318737008880742</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.53232661350123456</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>-0.20954926332695428</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.41516845780001671</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>-0.25477098712602331</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>-1.4423855137047321</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>-5.1589515943870481</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>63.106269234626218</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>-3.1673384762744585</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.3590815034841065</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>-0.39772474643214212</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.32357020898213423</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.96581592748477751</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>-7.0087629490915297</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>1410.9447953490037</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>-3.7029628934405814</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>-1.6738584059008697</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.35670559884174047</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>-0.25449551626526545</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>-0.27687930675666578</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>2.1154985249154064</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>-34.352474792971968</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>6.424275156865634</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>1.2022869185075862</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>-0.44423601080399377</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.29486503986627061</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.16535489140014914</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.12772693836727811</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>10.670363712253765</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>-14.477261092911016</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>4.99722249785024E-2</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.50120755981203957</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>-0.3583205082299965</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>-0.15836350151286002</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>-1.0910767217939206</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>-5.2807434075062218</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>62.444872810655177</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>-2.9851865439828078</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>-0.30951348959680686</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.37958039712568059</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.13945182265888101</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.47884349194642534</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>-6.0581264534973656</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>447.01270804825708</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>-4.0084367975390087</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>-0.87225141236158688</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>-0.43537445906424765</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>-3.4850651541103742E-2</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>1.7121258669551034E-5</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>1.8348707991111088</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>-31.937386936812182</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>6.7088816805479832</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.42966303296467517</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0.42548498115027472</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>-1.6287789830530062E-2</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>-4.895336649995715E-2</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.16841332955411195</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>3.7126411825261179E-3</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -21890,307 +21141,154 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col max="1" min="1" style="1" width="9.140625"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>1</v>
       </c>
-      <c r="B1">
-        <v>-5.2717473021766357E-6</v>
-      </c>
-      <c r="C1">
-        <v>-2.6817748211600918E-3</v>
-      </c>
       <c r="D1">
-        <v>0.4381429697971345</v>
-      </c>
-      <c r="E1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>0.43814296979713452</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>3.8393269359681876E-3</v>
-      </c>
-      <c r="C2">
-        <v>-4.3665596646933272E-3</v>
-      </c>
       <c r="D2">
-        <v>0.4385957712454995</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.43859577124549948</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>-2.4992323333769162E-2</v>
-      </c>
-      <c r="C3">
-        <v>9.9750452909062974E-3</v>
-      </c>
       <c r="D3">
-        <v>0.4389066006505631</v>
-      </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.43890660065056308</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>6.4898851951420505E-2</v>
-      </c>
-      <c r="C4">
-        <v>-4.0497860810356244E-2</v>
-      </c>
       <c r="D4">
-        <v>0.4400041274996923</v>
-      </c>
-      <c r="E4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.44000412749969231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>5</v>
       </c>
-      <c r="B5">
-        <v>-8.0972410665353114E-2</v>
-      </c>
-      <c r="C5">
-        <v>5.240739005173032E-2</v>
-      </c>
       <c r="D5">
         <v>0.4395871811527351</v>
       </c>
-      <c r="E5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>6</v>
       </c>
-      <c r="B6">
-        <v>-0.7245703167151184</v>
-      </c>
-      <c r="C6">
-        <v>0.30141961881401946</v>
-      </c>
       <c r="D6">
         <v>0.43972395326034097</v>
       </c>
-      <c r="E6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>7</v>
       </c>
-      <c r="B7">
-        <v>-7.2331093691849606</v>
-      </c>
-      <c r="C7">
-        <v>3.3821217228741527</v>
-      </c>
       <c r="D7">
-        <v>0.4709736352584269</v>
-      </c>
-      <c r="E7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.47097363525842689</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>8</v>
       </c>
-      <c r="B8">
-        <v>23.340810175250187</v>
-      </c>
-      <c r="C8">
-        <v>16.098568438562108</v>
-      </c>
       <c r="D8">
         <v>0</v>
       </c>
-      <c r="E8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>9</v>
       </c>
-      <c r="B9">
-        <v>-1.2411464252150315</v>
-      </c>
-      <c r="C9">
-        <v>-1.0871925721640672</v>
-      </c>
       <c r="D9">
-        <v>-0.3977186875033001</v>
-      </c>
-      <c r="E9">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.39771868750330008</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>10</v>
       </c>
-      <c r="B10">
-        <v>7.8148532314621363E-2</v>
-      </c>
-      <c r="C10">
-        <v>4.6215780102130635E-2</v>
-      </c>
       <c r="D10">
         <v>-0.44167477600133737</v>
       </c>
-      <c r="E10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>11</v>
       </c>
-      <c r="B11">
-        <v>-8.8070366101981989E-2</v>
-      </c>
-      <c r="C11">
-        <v>-6.1481815935871376E-2</v>
-      </c>
       <c r="D11">
         <v>-0.44260792274527344</v>
       </c>
-      <c r="E11">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>12</v>
       </c>
-      <c r="B12">
-        <v>7.5359468508894231E-2</v>
-      </c>
-      <c r="C12">
-        <v>5.029234548054623E-2</v>
-      </c>
       <c r="D12">
         <v>-0.44309028724166627</v>
       </c>
-      <c r="E12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>13</v>
       </c>
-      <c r="B13">
-        <v>1.290877360484818</v>
-      </c>
-      <c r="C13">
-        <v>0.55761734329001877</v>
-      </c>
       <c r="D13">
         <v>-0.44302613951506437</v>
       </c>
-      <c r="E13">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>14</v>
       </c>
-      <c r="B14">
-        <v>4.8041707111843506</v>
-      </c>
-      <c r="C14">
-        <v>2.3284930711328862</v>
-      </c>
       <c r="D14">
-        <v>-0.4981259199694965</v>
-      </c>
-      <c r="E14">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.49812591996949651</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>15</v>
       </c>
-      <c r="B15">
-        <v>-76.075221526746347</v>
-      </c>
-      <c r="C15">
-        <v>34.755123863100209</v>
-      </c>
       <c r="D15">
         <v>0</v>
       </c>
-      <c r="E15">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>16</v>
       </c>
-      <c r="B16">
-        <v>3.4592088726894605</v>
-      </c>
-      <c r="C16">
-        <v>-3.1227097528570189</v>
-      </c>
       <c r="D16">
-        <v>0.3294901983737284</v>
-      </c>
-      <c r="E16">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.32949019837372839</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>17</v>
       </c>
-      <c r="B17">
-        <v>-0.2204560193211709</v>
-      </c>
-      <c r="C17">
-        <v>0.18968379079164854</v>
-      </c>
       <c r="D17">
-        <v>0.4552555587058919</v>
-      </c>
-      <c r="E17">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>0.45525555870589191</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>18</v>
       </c>
@@ -22198,15 +21296,15 @@
         <v>0.44772848335852916</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>19</v>
       </c>
       <c r="D19">
-        <v>0.4519840332656747</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.45198403326567471</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>20</v>
       </c>
@@ -22214,15 +21312,15 @@
         <v>0.4522577024296992</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>21</v>
       </c>
       <c r="D21">
-        <v>0.5215886003283149</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.52158860032831489</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>22</v>
       </c>
@@ -22230,7 +21328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>23</v>
       </c>
@@ -22238,15 +21336,15 @@
         <v>-0.11949695559814513</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>24</v>
       </c>
       <c r="D24">
-        <v>-0.5042861098104027</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.50428610981040267</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>25</v>
       </c>
@@ -22254,15 +21352,15 @@
         <v>-0.45205147453982203</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>26</v>
       </c>
       <c r="D26">
-        <v>-0.4522433335232</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.45224333352320001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>27</v>
       </c>
@@ -22270,15 +21368,15 @@
         <v>-0.44459591718562047</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>28</v>
       </c>
       <c r="D28">
-        <v>-0.4485498866722082</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.44854988667220819</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>29</v>
       </c>
@@ -22286,7 +21384,7 @@
         <v>-0.32664303571252545</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>30</v>
       </c>
@@ -22294,1214 +21392,575 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>31</v>
       </c>
-      <c r="B31">
-        <v>-1.2193472712435576</v>
-      </c>
-      <c r="C31">
-        <v>1.1182506246593085</v>
-      </c>
       <c r="D31">
         <v>0.49890310788331393</v>
       </c>
-      <c r="E31">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>32</v>
       </c>
-      <c r="B32">
-        <v>-0.22028936963582377</v>
-      </c>
-      <c r="C32">
-        <v>0.12810904089184616</v>
-      </c>
       <c r="D32">
-        <v>0.4433839936037803</v>
-      </c>
-      <c r="E32">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.44338399360378028</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>33</v>
       </c>
-      <c r="B33">
-        <v>0.41918964943918302</v>
-      </c>
-      <c r="C33">
-        <v>-0.25285646101166609</v>
-      </c>
       <c r="D33">
-        <v>0.4464024849027762</v>
-      </c>
-      <c r="E33">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.44640248490277618</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>34</v>
       </c>
-      <c r="B34">
-        <v>-0.39800640745936766</v>
-      </c>
-      <c r="C34">
-        <v>0.30854177039226394</v>
-      </c>
       <c r="D34">
-        <v>0.440652036520729</v>
-      </c>
-      <c r="E34">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.44065203652072898</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>35</v>
       </c>
-      <c r="B35">
-        <v>1.0507462675356127</v>
-      </c>
-      <c r="C35">
-        <v>-0.48986263710907879</v>
-      </c>
       <c r="D35">
-        <v>0.432311709783766</v>
-      </c>
-      <c r="E35">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>0.43231170978376599</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>36</v>
       </c>
-      <c r="B36">
-        <v>-20.908607848335823</v>
-      </c>
-      <c r="C36">
-        <v>8.3284731788268154</v>
-      </c>
       <c r="D36">
-        <v>0.401033787431566</v>
-      </c>
-      <c r="E36">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.40103378743156598</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>37</v>
       </c>
-      <c r="B37">
-        <v>7.8878891654796668</v>
-      </c>
-      <c r="C37">
-        <v>8.0110563014897807</v>
-      </c>
       <c r="D37">
         <v>0</v>
       </c>
-      <c r="E37">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>38</v>
       </c>
-      <c r="B38">
-        <v>0.67354799751892691</v>
-      </c>
-      <c r="C38">
-        <v>0.59608685448858789</v>
-      </c>
       <c r="D38">
         <v>-0.46318157254737125</v>
       </c>
-      <c r="E38">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>39</v>
       </c>
-      <c r="B39">
-        <v>0.19905585232104916</v>
-      </c>
-      <c r="C39">
-        <v>9.3657379511686067E-2</v>
-      </c>
       <c r="D39">
         <v>-0.43690351858401505</v>
       </c>
-      <c r="E39">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>40</v>
       </c>
-      <c r="B40">
-        <v>-0.43853808417768336</v>
-      </c>
-      <c r="C40">
-        <v>-0.27337309579894631</v>
-      </c>
       <c r="D40">
-        <v>-0.4430223093495252</v>
-      </c>
-      <c r="E40">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.44302230934952519</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>41</v>
       </c>
-      <c r="B41">
-        <v>0.31750631622496533</v>
-      </c>
-      <c r="C41">
-        <v>0.2675465729823634</v>
-      </c>
       <c r="D41">
-        <v>-0.4389640500349338</v>
-      </c>
-      <c r="E41">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.43896405003493377</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>42</v>
       </c>
-      <c r="B42">
-        <v>0.52747428343717739</v>
-      </c>
-      <c r="C42">
-        <v>0.22185603361124948</v>
-      </c>
       <c r="D42">
         <v>-0.42889447888268023</v>
       </c>
-      <c r="E42">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>43</v>
       </c>
-      <c r="B43">
-        <v>9.3298586375041737</v>
-      </c>
-      <c r="C43">
-        <v>4.1661370871673489</v>
-      </c>
       <c r="D43">
         <v>-0.44778040888311543</v>
       </c>
-      <c r="E43">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>44</v>
       </c>
-      <c r="B44">
-        <v>-16.318737008880742</v>
-      </c>
-      <c r="C44">
-        <v>12.780792080696548</v>
-      </c>
       <c r="D44">
         <v>0</v>
       </c>
-      <c r="E44">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>45</v>
       </c>
-      <c r="B45">
-        <v>0.53232661350123456</v>
-      </c>
-      <c r="C45">
-        <v>-0.46317868070195684</v>
-      </c>
       <c r="D45">
         <v>0.41707834623516743</v>
       </c>
-      <c r="E45">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>46</v>
       </c>
-      <c r="B46">
-        <v>-0.20954926332695428</v>
-      </c>
-      <c r="C46">
-        <v>9.2267246976785663E-2</v>
-      </c>
       <c r="D46">
         <v>0.43586335721267433</v>
       </c>
-      <c r="E46">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>47</v>
       </c>
-      <c r="B47">
-        <v>0.41516845780001671</v>
-      </c>
-      <c r="C47">
-        <v>-0.27259569716951082</v>
-      </c>
       <c r="D47">
         <v>0.44330626591855876</v>
       </c>
-      <c r="E47">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>48</v>
       </c>
-      <c r="B48">
-        <v>-0.25477098712602331</v>
-      </c>
-      <c r="C48">
-        <v>0.21949747578879045</v>
-      </c>
       <c r="D48">
-        <v>0.4417979150401117</v>
-      </c>
-      <c r="E48">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.44179791504011168</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>49</v>
       </c>
-      <c r="B49">
-        <v>-1.4423855137047321</v>
-      </c>
-      <c r="C49">
-        <v>0.62355779542663448</v>
-      </c>
       <c r="D49">
-        <v>0.4329661857347702</v>
-      </c>
-      <c r="E49">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>0.43296618573477019</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>50</v>
       </c>
-      <c r="B50">
-        <v>-5.1589515943870481</v>
-      </c>
-      <c r="C50">
-        <v>2.4371595468747387</v>
-      </c>
       <c r="D50">
-        <v>0.4857551925581226</v>
-      </c>
-      <c r="E50">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.48575519255812261</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>51</v>
       </c>
-      <c r="B51">
-        <v>63.106269234626218</v>
-      </c>
-      <c r="C51">
-        <v>30.765210339990734</v>
-      </c>
       <c r="D51">
         <v>0</v>
       </c>
-      <c r="E51">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>52</v>
       </c>
-      <c r="B52">
-        <v>-3.1673384762744585</v>
-      </c>
-      <c r="C52">
-        <v>-2.8101741524737807</v>
-      </c>
       <c r="D52">
-        <v>-0.3386696979984207</v>
-      </c>
-      <c r="E52">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <v>-0.33866969799842073</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>53</v>
       </c>
-      <c r="B53">
-        <v>0.3590815034841065</v>
-      </c>
-      <c r="C53">
-        <v>0.23333264858327354</v>
-      </c>
       <c r="D53">
-        <v>-0.4481875318051226</v>
-      </c>
-      <c r="E53">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.44818753180512261</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>54</v>
       </c>
-      <c r="B54">
-        <v>-0.39772474643214212</v>
-      </c>
-      <c r="C54">
-        <v>-0.26097414282568454</v>
-      </c>
       <c r="D54">
         <v>-0.44898606560553894</v>
       </c>
-      <c r="E54">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>55</v>
       </c>
-      <c r="B55">
-        <v>0.32357020898213423</v>
-      </c>
-      <c r="C55">
-        <v>0.25119970458014362</v>
-      </c>
       <c r="D55">
         <v>-0.4468508651073686</v>
       </c>
-      <c r="E55">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>56</v>
       </c>
-      <c r="B56">
-        <v>0.96581592748477751</v>
-      </c>
-      <c r="C56">
-        <v>0.39652164023569542</v>
-      </c>
       <c r="D56">
         <v>-0.44028854927168765</v>
       </c>
-      <c r="E56">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>57</v>
       </c>
-      <c r="B57">
-        <v>-7.0087629490915297</v>
-      </c>
-      <c r="C57">
-        <v>-4.0763889420895634</v>
-      </c>
       <c r="D57">
         <v>-0.48408811570709187</v>
       </c>
-      <c r="E57">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>58</v>
       </c>
-      <c r="B58">
-        <v>1410.9447953490037</v>
-      </c>
-      <c r="C58">
-        <v>203.70704778218879</v>
-      </c>
       <c r="D58">
         <v>-0.17489082864357358</v>
       </c>
-      <c r="E58">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>59</v>
       </c>
-      <c r="B59">
-        <v>-3.7029628934405814</v>
-      </c>
-      <c r="C59">
-        <v>4.9470486584748956</v>
-      </c>
       <c r="D59">
         <v>0</v>
       </c>
-      <c r="E59">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>60</v>
       </c>
-      <c r="B60">
-        <v>-1.6738584059008697</v>
-      </c>
-      <c r="C60">
-        <v>1.4687595459465255</v>
-      </c>
       <c r="D60">
-        <v>0.517583575152898</v>
-      </c>
-      <c r="E60">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.51758357515289799</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>61</v>
       </c>
-      <c r="B61">
-        <v>0.35670559884174047</v>
-      </c>
-      <c r="C61">
-        <v>-0.19813287233047527</v>
-      </c>
       <c r="D61">
-        <v>0.4528734668042396</v>
-      </c>
-      <c r="E61">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.45287346680423962</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>62</v>
       </c>
-      <c r="B62">
-        <v>-0.25449551626526545</v>
-      </c>
-      <c r="C62">
-        <v>0.24916452568310904</v>
-      </c>
       <c r="D62">
         <v>0.44424138214500347</v>
       </c>
-      <c r="E62">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>63</v>
       </c>
-      <c r="B63">
-        <v>-0.27687930675666578</v>
-      </c>
-      <c r="C63">
-        <v>0.14792750349893644</v>
-      </c>
       <c r="D63">
         <v>0.43053529001894886</v>
       </c>
-      <c r="E63">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>64</v>
       </c>
-      <c r="B64">
-        <v>2.1154985249154064</v>
-      </c>
-      <c r="C64">
-        <v>-1.0206545998315188</v>
-      </c>
       <c r="D64">
         <v>0.43526860507937737</v>
       </c>
-      <c r="E64">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>65</v>
       </c>
-      <c r="B65">
-        <v>-34.352474792971968</v>
-      </c>
-      <c r="C65">
-        <v>12.517998069083513</v>
-      </c>
       <c r="D65">
-        <v>0.3729770535598715</v>
-      </c>
-      <c r="E65">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.37297705355987149</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>66</v>
       </c>
-      <c r="B66">
-        <v>6.424275156865634</v>
-      </c>
-      <c r="C66">
-        <v>7.0305378918565387</v>
-      </c>
       <c r="D66">
         <v>0</v>
       </c>
-      <c r="E66">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>67</v>
       </c>
-      <c r="B67">
-        <v>1.2022869185075862</v>
-      </c>
-      <c r="C67">
-        <v>0.9755627924610899</v>
-      </c>
       <c r="D67">
         <v>-0.47507822601448657</v>
       </c>
-      <c r="E67">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>68</v>
       </c>
-      <c r="B68">
-        <v>-0.44423601080399377</v>
-      </c>
-      <c r="C68">
-        <v>-0.27023145196203596</v>
-      </c>
       <c r="D68">
         <v>-0.44274298420296254</v>
       </c>
-      <c r="E68">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>69</v>
       </c>
-      <c r="B69">
-        <v>0.29486503986627061</v>
-      </c>
-      <c r="C69">
-        <v>0.26612559824573334</v>
-      </c>
       <c r="D69">
         <v>-0.43755264138253513</v>
       </c>
-      <c r="E69">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>70</v>
       </c>
-      <c r="B70">
-        <v>0.16535489140014914</v>
-      </c>
-      <c r="C70">
-        <v>8.4857551365438988E-2</v>
-      </c>
       <c r="D70">
-        <v>-0.4254377939592444</v>
-      </c>
-      <c r="E70">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+        <v>-0.42543779395924441</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>71</v>
       </c>
-      <c r="B71">
-        <v>0.12772693836727811</v>
-      </c>
-      <c r="C71">
-        <v>1.6481068018069783E-3</v>
-      </c>
       <c r="D71">
         <v>-0.42856563572493594</v>
       </c>
-      <c r="E71">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>72</v>
       </c>
-      <c r="B72">
-        <v>10.670363712253765</v>
-      </c>
-      <c r="C72">
-        <v>4.7113788281290754</v>
-      </c>
       <c r="D72">
-        <v>-0.4418008760630387</v>
-      </c>
-      <c r="E72">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.44180087606303869</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>73</v>
       </c>
-      <c r="B73">
-        <v>-14.477261092911016</v>
-      </c>
-      <c r="C73">
-        <v>11.836738920518329</v>
-      </c>
       <c r="D73">
         <v>0</v>
       </c>
-      <c r="E73">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>74</v>
       </c>
-      <c r="B74">
-        <v>4.99722249785024E-2</v>
-      </c>
-      <c r="C74">
-        <v>-0.14409088933302372</v>
-      </c>
       <c r="D74">
-        <v>0.4227693280578479</v>
-      </c>
-      <c r="E74">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.42276932805784789</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>75</v>
       </c>
-      <c r="B75">
-        <v>0.50120755981203957</v>
-      </c>
-      <c r="C75">
-        <v>-0.31988864353620561</v>
-      </c>
       <c r="D75">
         <v>0.44082521214199716</v>
       </c>
-      <c r="E75">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>76</v>
       </c>
-      <c r="B76">
-        <v>-0.3583205082299965</v>
-      </c>
-      <c r="C76">
-        <v>0.29525546710378731</v>
-      </c>
       <c r="D76">
         <v>0.43761853560319786</v>
       </c>
-      <c r="E76">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>77</v>
       </c>
-      <c r="B77">
-        <v>-0.15836350151286002</v>
-      </c>
-      <c r="C77">
-        <v>5.7484554736361118E-2</v>
-      </c>
       <c r="D77">
-        <v>0.427280396083533</v>
-      </c>
-      <c r="E77">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.42728039608353302</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>78</v>
       </c>
-      <c r="B78">
-        <v>-1.0910767217939206</v>
-      </c>
-      <c r="C78">
-        <v>0.40626097787290194</v>
-      </c>
       <c r="D78">
         <v>0.43424500756038054</v>
       </c>
-      <c r="E78">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>79</v>
       </c>
-      <c r="B79">
-        <v>-5.2807434075062218</v>
-      </c>
-      <c r="C79">
-        <v>2.5280966966307474</v>
-      </c>
       <c r="D79">
-        <v>0.4896866656955787</v>
-      </c>
-      <c r="E79">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>0.48968666569557873</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>80</v>
       </c>
-      <c r="B80">
-        <v>62.444872810655177</v>
-      </c>
-      <c r="C80">
-        <v>30.557218732331791</v>
-      </c>
       <c r="D80">
         <v>0</v>
       </c>
-      <c r="E80">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>81</v>
       </c>
-      <c r="B81">
-        <v>-2.9851865439828078</v>
-      </c>
-      <c r="C81">
-        <v>-2.7143616879500625</v>
-      </c>
       <c r="D81">
-        <v>-0.3388252714832229</v>
-      </c>
-      <c r="E81">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.33882527148322289</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>82</v>
       </c>
-      <c r="B82">
-        <v>-0.30951348959680686</v>
-      </c>
-      <c r="C82">
-        <v>-0.14890177557358195</v>
-      </c>
       <c r="D82">
-        <v>-0.4540304624816895</v>
-      </c>
-      <c r="E82">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.45403046248168949</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>83</v>
       </c>
-      <c r="B83">
-        <v>0.37958039712568059</v>
-      </c>
-      <c r="C83">
-        <v>0.30870547190126796</v>
-      </c>
       <c r="D83">
-        <v>-0.4424341744496535</v>
-      </c>
-      <c r="E83">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.44243417444965349</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>84</v>
       </c>
-      <c r="B84">
-        <v>0.13945182265888101</v>
-      </c>
-      <c r="C84">
-        <v>4.2395262269096658E-2</v>
-      </c>
       <c r="D84">
         <v>-0.43218997239079554</v>
       </c>
-      <c r="E84">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>85</v>
       </c>
-      <c r="B85">
-        <v>0.47884349194642534</v>
-      </c>
-      <c r="C85">
-        <v>0.13915329815446711</v>
-      </c>
       <c r="D85">
         <v>-0.44010083782892767</v>
       </c>
-      <c r="E85">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>86</v>
       </c>
-      <c r="B86">
-        <v>-6.0581264534973656</v>
-      </c>
-      <c r="C86">
-        <v>-3.2811827737430286</v>
-      </c>
       <c r="D86">
         <v>-0.47295320722375556</v>
       </c>
-      <c r="E86">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>87</v>
       </c>
-      <c r="B87">
-        <v>447.01270804825708</v>
-      </c>
-      <c r="C87">
-        <v>88.825423281778455</v>
-      </c>
       <c r="D87">
-        <v>-0.230364055246828</v>
-      </c>
-      <c r="E87">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.23036405524682799</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>88</v>
       </c>
-      <c r="B88">
-        <v>-4.0084367975390087</v>
-      </c>
-      <c r="C88">
-        <v>5.1819377683545405</v>
-      </c>
       <c r="D88">
         <v>0</v>
       </c>
-      <c r="E88">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>89</v>
       </c>
-      <c r="B89">
-        <v>-0.87225141236158688</v>
-      </c>
-      <c r="C89">
-        <v>0.97306183078184472</v>
-      </c>
       <c r="D89">
-        <v>0.5237642403523518</v>
-      </c>
-      <c r="E89">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.52376424035235181</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>90</v>
       </c>
-      <c r="B90">
-        <v>-0.43537445906424765</v>
-      </c>
-      <c r="C90">
-        <v>0.37118909194017058</v>
-      </c>
       <c r="D90">
         <v>0.44850508192145405</v>
       </c>
-      <c r="E90">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>91</v>
       </c>
-      <c r="B91">
-        <v>-3.4850651541103742E-2</v>
-      </c>
-      <c r="C91">
-        <v>8.9077817174989509E-3</v>
-      </c>
       <c r="D91">
         <v>0.43398549375272377</v>
       </c>
-      <c r="E91">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>92</v>
       </c>
-      <c r="B92">
-        <v>1.7121258669551034E-5</v>
-      </c>
-      <c r="C92">
-        <v>-2.1098670760775363E-2</v>
-      </c>
       <c r="D92">
         <v>0.43625258527735317</v>
       </c>
-      <c r="E92">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>93</v>
       </c>
-      <c r="B93">
-        <v>1.8348707991111088</v>
-      </c>
-      <c r="C93">
-        <v>-0.83105359266012124</v>
-      </c>
       <c r="D93">
-        <v>0.4397969822467879</v>
-      </c>
-      <c r="E93">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.43979698224678793</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>94</v>
       </c>
-      <c r="B94">
-        <v>-31.937386936812182</v>
-      </c>
-      <c r="C94">
-        <v>11.803247923291639</v>
-      </c>
       <c r="D94">
         <v>0.37721648556315557</v>
       </c>
-      <c r="E94">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>95</v>
       </c>
-      <c r="B95">
-        <v>6.7088816805479832</v>
-      </c>
-      <c r="C95">
-        <v>7.206429651952134</v>
-      </c>
       <c r="D95">
         <v>0</v>
       </c>
-      <c r="E95">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>96</v>
       </c>
-      <c r="B96">
-        <v>0.42966303296467517</v>
-      </c>
-      <c r="C96">
-        <v>0.52555465205029805</v>
-      </c>
       <c r="D96">
         <v>-0.48177865832941974</v>
       </c>
-      <c r="E96">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>97</v>
       </c>
-      <c r="B97">
-        <v>0.42548498115027472</v>
-      </c>
-      <c r="C97">
-        <v>0.33306695189447943</v>
-      </c>
       <c r="D97">
-        <v>-0.4381853297611584</v>
-      </c>
-      <c r="E97">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>-0.43818532976115843</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>98</v>
       </c>
-      <c r="B98">
-        <v>-1.6287789830530062E-2</v>
-      </c>
-      <c r="C98">
-        <v>-3.6211648799325577E-2</v>
-      </c>
       <c r="D98">
         <v>-0.42863322196865367</v>
       </c>
-      <c r="E98">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>99</v>
       </c>
-      <c r="B99">
-        <v>-4.895336649995715E-2</v>
-      </c>
-      <c r="C99">
-        <v>-4.3141931280601016E-2</v>
-      </c>
       <c r="D99">
-        <v>-0.4327428656336924</v>
-      </c>
-      <c r="E99">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+        <v>-0.43274286563369241</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>100</v>
       </c>
-      <c r="B100">
-        <v>0.16841332955411195</v>
-      </c>
-      <c r="C100">
-        <v>7.2600160516219855E-2</v>
-      </c>
       <c r="D100">
-        <v>-0.4345838758882324</v>
-      </c>
-      <c r="E100">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
+        <v>-0.43458387588823238</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>101</v>
       </c>
-      <c r="B101">
-        <v>3.7126411825261179E-3</v>
-      </c>
-      <c r="C101">
-        <v>-6.8770237095523032E-2</v>
-      </c>
       <c r="D101">
         <v>-0.44071995984022483</v>
       </c>
-      <c r="E101">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="102">
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D102">
         <v>-0.45315333982535644</v>
       </c>
